--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>986036.4879462388</v>
+        <v>961672.1074183369</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3459323.76578433</v>
+        <v>2062814.276418444</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10101637.72850997</v>
+        <v>10749600.20013604</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>225.0704107596672</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>253.9512290186734</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -837,7 +837,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>188.7221730505805</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>23.94563726208663</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>263.409462486569</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>96.26276321421642</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>102.3313074444629</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>50.78271931704851</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1116,7 +1116,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>70.0053090618718</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>410.9338715566937</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.7321536188796</v>
       </c>
       <c r="I8" t="n">
-        <v>42.04518470759558</v>
+        <v>42.04518470759555</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.464536558263</v>
+        <v>109.4645365582629</v>
       </c>
       <c r="T8" t="n">
         <v>203.9711388310543</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>63.47671778774167</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.65963851412518</v>
       </c>
       <c r="I9" t="n">
-        <v>8.915218264396657</v>
+        <v>8.915218264396643</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>166.0312564930842</v>
       </c>
       <c r="H10" t="n">
-        <v>144.803454668018</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.51626366671984</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>152.4830611796179</v>
       </c>
       <c r="W10" t="n">
-        <v>197.6863411814708</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1372,16 +1372,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>141.1762660121956</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>243.2391485592458</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>35.71650145566797</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>45.18349897297484</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>260.8334463828079</v>
       </c>
       <c r="H14" t="n">
-        <v>183.1642512458445</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>113.5103646250817</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>150.2062474346973</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>212.7626450469281</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>138.0957464459797</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>39.98381717399459</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>74.75769145492424</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>175.0602991046333</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>160.0317554412391</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2295,7 +2295,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>41.17718528387975</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>52.23490948285976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>148.472352510042</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>87.71894785389792</v>
       </c>
       <c r="T23" t="n">
-        <v>70.71219955549131</v>
+        <v>199.7937909625581</v>
       </c>
       <c r="U23" t="n">
         <v>250.9198014656604</v>
@@ -2417,7 +2417,7 @@
         <v>84.72847928091258</v>
       </c>
       <c r="I24" t="n">
-        <v>1.461673868604237</v>
+        <v>1.461673868604251</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.6032006521999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>98.94446245338422</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>30.49893780059235</v>
+        <v>217.7432622288117</v>
       </c>
       <c r="U25" t="n">
-        <v>286.188786881604</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,10 +2572,10 @@
         <v>409.9795944879339</v>
       </c>
       <c r="H26" t="n">
-        <v>68.15862432747818</v>
+        <v>284.9591635884428</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>5.255418014231509</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>87.71894785389789</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>199.7937909625581</v>
+        <v>65.45678154125898</v>
       </c>
       <c r="U26" t="n">
         <v>250.9198014656604</v>
@@ -2654,7 +2654,7 @@
         <v>84.72847928091258</v>
       </c>
       <c r="I27" t="n">
-        <v>1.461673868604237</v>
+        <v>1.461673868604251</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.9976491008832</v>
       </c>
       <c r="I28" t="n">
-        <v>83.64345710630879</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>182.404127310624</v>
       </c>
       <c r="T28" t="n">
         <v>217.7432622288117</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>160.8263545827838</v>
+        <v>62.06568437846821</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>159.8744127970666</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2812,7 +2812,7 @@
         <v>284.9591635884428</v>
       </c>
       <c r="I29" t="n">
-        <v>5.255418014231481</v>
+        <v>5.255418014231509</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>87.71894785389789</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>199.7937909625581</v>
+        <v>65.45678154125987</v>
       </c>
       <c r="U29" t="n">
         <v>250.9198014656604</v>
@@ -2891,7 +2891,7 @@
         <v>84.72847928091258</v>
       </c>
       <c r="I30" t="n">
-        <v>1.461673868604237</v>
+        <v>1.461673868604251</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.9976491008832</v>
       </c>
       <c r="I31" t="n">
-        <v>83.64345710630879</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>69.93017791211024</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>175.6900755813132</v>
       </c>
       <c r="U31" t="n">
-        <v>22.11644056289444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3049,7 +3049,7 @@
         <v>284.9591635884428</v>
       </c>
       <c r="I32" t="n">
-        <v>5.255418014231481</v>
+        <v>5.255418014231509</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>199.7937909625581</v>
+        <v>65.45678154125898</v>
       </c>
       <c r="U32" t="n">
-        <v>116.582792044363</v>
+        <v>250.9198014656604</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3128,7 +3128,7 @@
         <v>84.72847928091258</v>
       </c>
       <c r="I33" t="n">
-        <v>1.461673868604237</v>
+        <v>1.461673868604251</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.6032006521999</v>
+        <v>39.70535474644292</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>69.93017791211025</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>182.404127310624</v>
       </c>
       <c r="T34" t="n">
-        <v>30.49893780059235</v>
+        <v>217.7432622288117</v>
       </c>
       <c r="U34" t="n">
         <v>286.188786881604</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>187.9236372127386</v>
+        <v>409.9795944879339</v>
       </c>
       <c r="H35" t="n">
-        <v>284.9591635884428</v>
+        <v>62.90320631324668</v>
       </c>
       <c r="I35" t="n">
-        <v>5.255418014231481</v>
+        <v>5.255418014231509</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>87.71894785389789</v>
+        <v>87.71894785389792</v>
       </c>
       <c r="T35" t="n">
         <v>199.7937909625581</v>
@@ -3365,7 +3365,7 @@
         <v>84.72847928091258</v>
       </c>
       <c r="I36" t="n">
-        <v>1.461673868604237</v>
+        <v>1.461673868604251</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>82.85159758265158</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>83.64345710630879</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>69.93017791211024</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>182.404127310624</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.7432622288117</v>
+        <v>196.1021384527916</v>
       </c>
       <c r="U37" t="n">
         <v>286.188786881604</v>
@@ -3514,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>184.8200884665162</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.9795944879339</v>
       </c>
       <c r="H38" t="n">
-        <v>284.9591635884428</v>
+        <v>62.90320631324579</v>
       </c>
       <c r="I38" t="n">
-        <v>5.255418014231452</v>
+        <v>5.255418014231509</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>87.71894785389787</v>
+        <v>87.71894785389792</v>
       </c>
       <c r="T38" t="n">
         <v>199.7937909625581</v>
@@ -3602,7 +3602,7 @@
         <v>84.72847928091258</v>
       </c>
       <c r="I39" t="n">
-        <v>1.461673868604208</v>
+        <v>1.461673868604251</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>87.80975958285649</v>
       </c>
       <c r="G40" t="n">
-        <v>165.6032006521999</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>69.93017791211022</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>182.404127310624</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>126.0848249817082</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>409.9795944879339</v>
       </c>
       <c r="H41" t="n">
-        <v>68.15862432747907</v>
+        <v>62.90320631324668</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>5.255418014231509</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>87.71894785389789</v>
+        <v>87.71894785389792</v>
       </c>
       <c r="T41" t="n">
         <v>199.7937909625581</v>
@@ -3839,7 +3839,7 @@
         <v>84.72847928091258</v>
       </c>
       <c r="I42" t="n">
-        <v>1.461673868604237</v>
+        <v>1.461673868604251</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>140.31727674412</v>
+        <v>165.6032006521999</v>
       </c>
       <c r="H43" t="n">
         <v>140.9976491008832</v>
       </c>
       <c r="I43" t="n">
-        <v>83.64345710630879</v>
+        <v>83.6434571063088</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>69.93017791211024</v>
+        <v>69.93017791211025</v>
       </c>
       <c r="S43" t="n">
-        <v>182.404127310624</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.7432622288117</v>
       </c>
       <c r="U43" t="n">
-        <v>286.188786881604</v>
+        <v>168.3788797091081</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>132.6270843454868</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3997,7 +3997,7 @@
         <v>284.9591635884428</v>
       </c>
       <c r="I44" t="n">
-        <v>5.255418014231481</v>
+        <v>5.255418014231509</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>87.71894785389792</v>
       </c>
       <c r="T44" t="n">
-        <v>65.45678154126078</v>
+        <v>199.7937909625581</v>
       </c>
       <c r="U44" t="n">
         <v>250.9198014656604</v>
@@ -4076,7 +4076,7 @@
         <v>84.72847928091258</v>
       </c>
       <c r="I45" t="n">
-        <v>1.461673868604237</v>
+        <v>1.461673868604251</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.9976491008832</v>
       </c>
       <c r="I46" t="n">
-        <v>83.64345710630879</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>92.04661847500455</v>
+        <v>286.188786881604</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>108.0859420518037</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1878.507785786471</v>
+        <v>1844.676600992464</v>
       </c>
       <c r="C2" t="n">
-        <v>1878.507785786471</v>
+        <v>1475.714084052052</v>
       </c>
       <c r="D2" t="n">
-        <v>1520.242087179721</v>
+        <v>1475.714084052052</v>
       </c>
       <c r="E2" t="n">
-        <v>1134.453834581477</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>723.4679297918692</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>307.7631795161581</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800313</v>
@@ -4336,13 +4336,13 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
         <v>2055.228484740841</v>
@@ -4369,13 +4369,13 @@
         <v>2231.276441056586</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.507785786471</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="X2" t="n">
-        <v>1878.507785786471</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.507785786471</v>
+        <v>2231.276441056586</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>302.1446891756905</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182526</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.6740181205796</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800313</v>
@@ -4412,22 +4412,22 @@
         <v>238.4273302370162</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380233</v>
+        <v>507.2413987429764</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694951</v>
+        <v>801.9449557744482</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.793729425661</v>
+        <v>1552.492103330614</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>1884.562538506776</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.04689843412</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400156</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1866.686420315119</v>
+        <v>981.8280128167645</v>
       </c>
       <c r="C4" t="n">
-        <v>1697.750237387213</v>
+        <v>812.8918298888576</v>
       </c>
       <c r="D4" t="n">
-        <v>1547.633597974877</v>
+        <v>662.7751904765219</v>
       </c>
       <c r="E4" t="n">
-        <v>1399.720504392484</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F4" t="n">
-        <v>1399.720504392484</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700762</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936617</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571482</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496683</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915738</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>2269.127464288889</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T4" t="n">
-        <v>2269.127464288889</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U4" t="n">
-        <v>2269.127464288889</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V4" t="n">
-        <v>2269.127464288889</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W4" t="n">
-        <v>2269.127464288889</v>
+        <v>1612.258607688552</v>
       </c>
       <c r="X4" t="n">
-        <v>2269.127464288889</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="Y4" t="n">
-        <v>2048.334885145359</v>
+        <v>1163.476477647004</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>728.3028554854582</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="C5" t="n">
-        <v>728.3028554854582</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="D5" t="n">
-        <v>728.3028554854582</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E5" t="n">
-        <v>728.3028554854582</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>317.3169506958506</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>317.3169506958506</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816077</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
         <v>2360.886721764998</v>
@@ -4597,22 +4597,22 @@
         <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2465.104214042362</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2465.104214042362</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056586</v>
+        <v>2465.104214042362</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786471</v>
+        <v>2465.104214042362</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.042027525392</v>
+        <v>2465.104214042362</v>
       </c>
       <c r="Y5" t="n">
-        <v>1114.90269554958</v>
+        <v>2074.96488206655</v>
       </c>
     </row>
     <row r="6">
@@ -4652,16 +4652,16 @@
         <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495379</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1800.470091281865</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>621.7403896492181</v>
+        <v>621.5776595052479</v>
       </c>
       <c r="C7" t="n">
-        <v>621.7403896492181</v>
+        <v>452.641476577341</v>
       </c>
       <c r="D7" t="n">
-        <v>621.7403896492181</v>
+        <v>302.5248371650052</v>
       </c>
       <c r="E7" t="n">
-        <v>473.8272960668249</v>
+        <v>154.6117435826121</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800313</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1585.150443996671</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1388.521696156532</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1165.543215351267</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>876.4248778551049</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>621.7403896492181</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W7" t="n">
-        <v>621.7403896492181</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="X7" t="n">
-        <v>621.7403896492181</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="Y7" t="n">
-        <v>621.7403896492181</v>
+        <v>803.2261243354876</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>906.6264540355376</v>
+        <v>2345.482142851371</v>
       </c>
       <c r="C8" t="n">
-        <v>537.6639370951259</v>
+        <v>1976.519625910959</v>
       </c>
       <c r="D8" t="n">
-        <v>179.3982384883754</v>
+        <v>1618.253927304209</v>
       </c>
       <c r="E8" t="n">
-        <v>108.6858050925453</v>
+        <v>1232.465674705964</v>
       </c>
       <c r="F8" t="n">
-        <v>108.6858050925453</v>
+        <v>821.4797699163568</v>
       </c>
       <c r="G8" t="n">
-        <v>108.6858050925453</v>
+        <v>406.3950511722217</v>
       </c>
       <c r="H8" t="n">
         <v>108.6858050925453</v>
@@ -4804,13 +4804,13 @@
         <v>66.21592154951945</v>
       </c>
       <c r="J8" t="n">
-        <v>254.0744928369594</v>
+        <v>254.0744928369595</v>
       </c>
       <c r="K8" t="n">
-        <v>586.3643121319021</v>
+        <v>586.3643121319024</v>
       </c>
       <c r="L8" t="n">
-        <v>1035.500977900981</v>
+        <v>1035.500977900982</v>
       </c>
       <c r="M8" t="n">
         <v>1566.921495383895</v>
@@ -4819,7 +4819,7 @@
         <v>2111.554760801561</v>
       </c>
       <c r="O8" t="n">
-        <v>2612.501248106873</v>
+        <v>2612.501248106874</v>
       </c>
       <c r="P8" t="n">
         <v>3005.546484356409</v>
@@ -4828,28 +4828,28 @@
         <v>3252.534341412641</v>
       </c>
       <c r="R8" t="n">
-        <v>3310.796077475972</v>
+        <v>3310.796077475973</v>
       </c>
       <c r="S8" t="n">
         <v>3200.225838528232</v>
       </c>
       <c r="T8" t="n">
-        <v>2994.19438516353</v>
+        <v>2994.194385163531</v>
       </c>
       <c r="U8" t="n">
         <v>2740.662926950236</v>
       </c>
       <c r="V8" t="n">
-        <v>2409.600039606665</v>
+        <v>2409.600039606666</v>
       </c>
       <c r="W8" t="n">
-        <v>2056.831384336551</v>
+        <v>2345.482142851371</v>
       </c>
       <c r="X8" t="n">
-        <v>1683.365626075471</v>
+        <v>2345.482142851371</v>
       </c>
       <c r="Y8" t="n">
-        <v>1293.226294099659</v>
+        <v>2345.482142851371</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>66.21592154951945</v>
       </c>
       <c r="J9" t="n">
-        <v>159.2853526912738</v>
+        <v>159.2853526912737</v>
       </c>
       <c r="K9" t="n">
-        <v>396.5106591183467</v>
+        <v>396.5106591183469</v>
       </c>
       <c r="L9" t="n">
-        <v>761.811900185831</v>
+        <v>761.8119001858308</v>
       </c>
       <c r="M9" t="n">
-        <v>1207.458086537445</v>
+        <v>1207.458086537444</v>
       </c>
       <c r="N9" t="n">
         <v>1679.307846295919</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.53741610928</v>
+        <v>847.7801248620698</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6012331813729</v>
+        <v>678.8439419341629</v>
       </c>
       <c r="D10" t="n">
-        <v>772.4845937690371</v>
+        <v>528.7273025218271</v>
       </c>
       <c r="E10" t="n">
-        <v>624.571500186644</v>
+        <v>380.814208939434</v>
       </c>
       <c r="F10" t="n">
-        <v>477.6815526887336</v>
+        <v>233.9242614415236</v>
       </c>
       <c r="G10" t="n">
-        <v>309.9732127967294</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="H10" t="n">
-        <v>163.7070969704486</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="I10" t="n">
         <v>66.21592154951945</v>
       </c>
       <c r="J10" t="n">
-        <v>110.9572157501788</v>
+        <v>110.9572157501789</v>
       </c>
       <c r="K10" t="n">
-        <v>314.317742817943</v>
+        <v>314.3177428179431</v>
       </c>
       <c r="L10" t="n">
-        <v>630.0756374886842</v>
+        <v>630.0756374886843</v>
       </c>
       <c r="M10" t="n">
-        <v>973.3871879897968</v>
+        <v>973.3871879897969</v>
       </c>
       <c r="N10" t="n">
         <v>1313.970173580891</v>
       </c>
       <c r="O10" t="n">
-        <v>1612.537390213391</v>
+        <v>1612.537390213392</v>
       </c>
       <c r="P10" t="n">
         <v>1844.492540894131</v>
       </c>
       <c r="Q10" t="n">
-        <v>1921.651183891643</v>
+        <v>1921.651183891644</v>
       </c>
       <c r="R10" t="n">
-        <v>1921.651183891643</v>
+        <v>1921.651183891644</v>
       </c>
       <c r="S10" t="n">
-        <v>1921.651183891643</v>
+        <v>1921.651183891644</v>
       </c>
       <c r="T10" t="n">
-        <v>1921.651183891643</v>
+        <v>1921.651183891644</v>
       </c>
       <c r="U10" t="n">
-        <v>1921.651183891643</v>
+        <v>1921.651183891644</v>
       </c>
       <c r="V10" t="n">
-        <v>1921.651183891643</v>
+        <v>1767.627889770818</v>
       </c>
       <c r="W10" t="n">
-        <v>1721.968010981067</v>
+        <v>1478.210719733857</v>
       </c>
       <c r="X10" t="n">
-        <v>1493.978460083049</v>
+        <v>1250.22116883584</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.185880939519</v>
+        <v>1029.42858969231</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2303.170539913434</v>
+        <v>921.7704558796274</v>
       </c>
       <c r="C11" t="n">
-        <v>1934.208022973022</v>
+        <v>921.7704558796274</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F11" t="n">
         <v>779.1681669784198</v>
@@ -5035,58 +5035,58 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X11" t="n">
-        <v>3079.909711953368</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y11" t="n">
-        <v>2689.770379977556</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="12">
@@ -5096,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064588</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L12" t="n">
         <v>765.1517452158131</v>
@@ -5144,16 +5144,16 @@
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>249.4793381277382</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C13" t="n">
-        <v>249.4793381277382</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D13" t="n">
-        <v>249.4793381277382</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E13" t="n">
-        <v>249.4793381277382</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>102.5893906298278</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G13" t="n">
-        <v>102.5893906298278</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H13" t="n">
-        <v>102.5893906298278</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5232,19 +5232,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1169.327103036486</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>879.9099329995254</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X13" t="n">
-        <v>651.920382101508</v>
+        <v>545.1671681726692</v>
       </c>
       <c r="Y13" t="n">
-        <v>431.1278029579779</v>
+        <v>545.1671681726692</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2232.598233480555</v>
+        <v>1853.982617026599</v>
       </c>
       <c r="C14" t="n">
-        <v>1863.635716540143</v>
+        <v>1485.020100086188</v>
       </c>
       <c r="D14" t="n">
-        <v>1505.370017933393</v>
+        <v>1126.754401479437</v>
       </c>
       <c r="E14" t="n">
-        <v>1119.581765335148</v>
+        <v>740.966148881193</v>
       </c>
       <c r="F14" t="n">
-        <v>708.595860545541</v>
+        <v>329.9802440915855</v>
       </c>
       <c r="G14" t="n">
-        <v>293.5234103905374</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U14" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V14" t="n">
-        <v>3009.337405520489</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W14" t="n">
-        <v>3009.337405520489</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="X14" t="n">
-        <v>3009.337405520489</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="Y14" t="n">
-        <v>2619.198073544677</v>
+        <v>2240.582457090721</v>
       </c>
     </row>
     <row r="15">
@@ -5333,70 +5333,70 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>181.1690503969125</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>181.1690503969125</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>181.1690503969125</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>181.1690503969125</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>181.1690503969125</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5463,25 +5463,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T16" t="n">
-        <v>1494.054724415577</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1494.054724415577</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V16" t="n">
-        <v>1494.054724415577</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W16" t="n">
-        <v>1494.054724415577</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>362.8175152271522</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>362.8175152271522</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1032.061124352532</v>
+        <v>1734.047335491683</v>
       </c>
       <c r="C17" t="n">
-        <v>1032.061124352532</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D17" t="n">
-        <v>1032.061124352532</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E17" t="n">
-        <v>1032.061124352532</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F17" t="n">
-        <v>621.0752195629241</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G17" t="n">
-        <v>206.0027694079205</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J17" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U17" t="n">
-        <v>2866.09759726723</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V17" t="n">
-        <v>2535.034709923659</v>
+        <v>2884.252265792697</v>
       </c>
       <c r="W17" t="n">
-        <v>2182.266054653545</v>
+        <v>2884.252265792697</v>
       </c>
       <c r="X17" t="n">
-        <v>1808.800296392465</v>
+        <v>2510.786507531617</v>
       </c>
       <c r="Y17" t="n">
-        <v>1418.660964416653</v>
+        <v>2120.647175555805</v>
       </c>
     </row>
     <row r="18">
@@ -5585,34 +5585,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>142.0249360836221</v>
+        <v>720.7556739678756</v>
       </c>
       <c r="C19" t="n">
-        <v>142.0249360836221</v>
+        <v>551.8194910399687</v>
       </c>
       <c r="D19" t="n">
-        <v>142.0249360836221</v>
+        <v>401.702851627633</v>
       </c>
       <c r="E19" t="n">
-        <v>142.0249360836221</v>
+        <v>253.7897580452399</v>
       </c>
       <c r="F19" t="n">
-        <v>142.0249360836221</v>
+        <v>106.8998105473295</v>
       </c>
       <c r="G19" t="n">
-        <v>142.0249360836221</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H19" t="n">
-        <v>142.0249360836221</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672848</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="U19" t="n">
-        <v>1134.908724368017</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V19" t="n">
-        <v>880.2242361621301</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W19" t="n">
-        <v>590.8070661251695</v>
+        <v>902.4041387981154</v>
       </c>
       <c r="X19" t="n">
-        <v>362.8175152271522</v>
+        <v>902.4041387981154</v>
       </c>
       <c r="Y19" t="n">
-        <v>142.0249360836221</v>
+        <v>902.4041387981154</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2209.232076102166</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C20" t="n">
-        <v>1840.269559161754</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D20" t="n">
-        <v>1482.003860555003</v>
+        <v>867.3728191854312</v>
       </c>
       <c r="E20" t="n">
-        <v>1096.215607956759</v>
+        <v>481.584566587187</v>
       </c>
       <c r="F20" t="n">
-        <v>685.2297031671517</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G20" t="n">
-        <v>270.1572530121481</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267231</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.605821609171</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="W20" t="n">
-        <v>2972.837166339057</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="X20" t="n">
-        <v>2599.371408077977</v>
+        <v>2161.56895166258</v>
       </c>
       <c r="Y20" t="n">
-        <v>2209.232076102166</v>
+        <v>1771.429619686769</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1708.366253916659</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C22" t="n">
-        <v>1708.366253916659</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D22" t="n">
-        <v>1708.366253916659</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E22" t="n">
-        <v>1708.366253916659</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>1708.366253916659</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>1708.366253916659</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H22" t="n">
-        <v>1562.149067134517</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>3044.089480193526</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T22" t="n">
-        <v>2822.322864763052</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U22" t="n">
-        <v>2533.219997888695</v>
+        <v>1472.248932036482</v>
       </c>
       <c r="V22" t="n">
-        <v>2278.535509682808</v>
+        <v>1217.564443830595</v>
       </c>
       <c r="W22" t="n">
-        <v>1989.118339645848</v>
+        <v>928.1472737936348</v>
       </c>
       <c r="X22" t="n">
-        <v>1761.12878874783</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="Y22" t="n">
-        <v>1708.366253916659</v>
+        <v>700.1577228956174</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2315.44802047637</v>
+        <v>2096.457576778425</v>
       </c>
       <c r="C23" t="n">
         <v>1946.485503535959</v>
@@ -5983,16 +5983,16 @@
         <v>377.324845028292</v>
       </c>
       <c r="H23" t="n">
-        <v>89.48730605006688</v>
+        <v>89.48730605006686</v>
       </c>
       <c r="I23" t="n">
-        <v>89.48730605006688</v>
+        <v>89.48730605006686</v>
       </c>
       <c r="J23" t="n">
-        <v>357.5290199685165</v>
+        <v>357.5290199685164</v>
       </c>
       <c r="K23" t="n">
-        <v>809.9925847318674</v>
+        <v>809.9925847318672</v>
       </c>
       <c r="L23" t="n">
         <v>1408.215408243983</v>
@@ -6004,37 +6004,37 @@
         <v>2818.727570101718</v>
       </c>
       <c r="O23" t="n">
-        <v>3478.851158371352</v>
+        <v>3478.851158371351</v>
       </c>
       <c r="P23" t="n">
-        <v>4007.750367601549</v>
+        <v>4007.750367601548</v>
       </c>
       <c r="Q23" t="n">
-        <v>4356.758900588731</v>
+        <v>4356.75890058873</v>
       </c>
       <c r="R23" t="n">
-        <v>4474.365302503344</v>
+        <v>4474.365302503343</v>
       </c>
       <c r="S23" t="n">
-        <v>4474.365302503344</v>
+        <v>4385.760304671123</v>
       </c>
       <c r="T23" t="n">
-        <v>4402.938838305878</v>
+        <v>4183.948394607933</v>
       </c>
       <c r="U23" t="n">
-        <v>4149.484493391069</v>
+        <v>3930.494049693124</v>
       </c>
       <c r="V23" t="n">
-        <v>3818.421606047498</v>
+        <v>3599.431162349553</v>
       </c>
       <c r="W23" t="n">
-        <v>3465.652950777384</v>
+        <v>3246.662507079439</v>
       </c>
       <c r="X23" t="n">
-        <v>3092.187192516304</v>
+        <v>2873.196748818359</v>
       </c>
       <c r="Y23" t="n">
-        <v>2702.047860540492</v>
+        <v>2483.057416842547</v>
       </c>
     </row>
     <row r="24">
@@ -6065,22 +6065,22 @@
         <v>90.96374430118227</v>
       </c>
       <c r="I24" t="n">
-        <v>89.48730605006688</v>
+        <v>89.48730605006686</v>
       </c>
       <c r="J24" t="n">
-        <v>230.3132676333321</v>
+        <v>230.313267633332</v>
       </c>
       <c r="K24" t="n">
-        <v>371.5939489503884</v>
+        <v>549.1620911332009</v>
       </c>
       <c r="L24" t="n">
-        <v>846.6480816898926</v>
+        <v>1024.216223872705</v>
       </c>
       <c r="M24" t="n">
-        <v>1420.370715913289</v>
+        <v>1597.938858096101</v>
       </c>
       <c r="N24" t="n">
-        <v>2023.686726015347</v>
+        <v>2201.254868198159</v>
       </c>
       <c r="O24" t="n">
         <v>2553.383212710216</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>870.6191297253604</v>
+        <v>970.5630311934252</v>
       </c>
       <c r="C25" t="n">
-        <v>701.6829467974535</v>
+        <v>801.6268482655183</v>
       </c>
       <c r="D25" t="n">
-        <v>551.5663073851177</v>
+        <v>651.5102088531826</v>
       </c>
       <c r="E25" t="n">
-        <v>403.6532138027246</v>
+        <v>503.5971152707895</v>
       </c>
       <c r="F25" t="n">
-        <v>256.7632663048142</v>
+        <v>356.7071677728791</v>
       </c>
       <c r="G25" t="n">
-        <v>89.48730605006688</v>
+        <v>189.4312075181317</v>
       </c>
       <c r="H25" t="n">
-        <v>89.48730605006688</v>
+        <v>89.48730605006686</v>
       </c>
       <c r="I25" t="n">
-        <v>89.48730605006688</v>
+        <v>89.48730605006686</v>
       </c>
       <c r="J25" t="n">
         <v>164.18951272174</v>
       </c>
       <c r="K25" t="n">
-        <v>416.7850226080146</v>
+        <v>416.7850226080145</v>
       </c>
       <c r="L25" t="n">
-        <v>795.5467442751501</v>
+        <v>795.5467442751499</v>
       </c>
       <c r="M25" t="n">
         <v>1205.286996555572</v>
@@ -6177,22 +6177,22 @@
         <v>2365.037973428072</v>
       </c>
       <c r="T25" t="n">
-        <v>2334.230965548686</v>
+        <v>2145.09528430806</v>
       </c>
       <c r="U25" t="n">
-        <v>2045.151382839995</v>
+        <v>2145.09528430806</v>
       </c>
       <c r="V25" t="n">
-        <v>1790.466894634108</v>
+        <v>1890.410796102173</v>
       </c>
       <c r="W25" t="n">
-        <v>1501.049724597147</v>
+        <v>1600.993626065212</v>
       </c>
       <c r="X25" t="n">
-        <v>1273.06017369913</v>
+        <v>1373.004075167195</v>
       </c>
       <c r="Y25" t="n">
-        <v>1052.2675945556</v>
+        <v>1152.211496023665</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2096.457576778426</v>
+        <v>2320.756523521049</v>
       </c>
       <c r="C26" t="n">
-        <v>1727.495059838015</v>
+        <v>1951.794006580637</v>
       </c>
       <c r="D26" t="n">
-        <v>1369.229361231264</v>
+        <v>1593.528307973887</v>
       </c>
       <c r="E26" t="n">
-        <v>983.4411086330199</v>
+        <v>1207.740055375642</v>
       </c>
       <c r="F26" t="n">
-        <v>572.4552038434124</v>
+        <v>796.7541505860347</v>
       </c>
       <c r="G26" t="n">
-        <v>158.3344013303479</v>
+        <v>382.6333480729703</v>
       </c>
       <c r="H26" t="n">
-        <v>89.48730605006688</v>
+        <v>94.79580909474515</v>
       </c>
       <c r="I26" t="n">
-        <v>89.48730605006688</v>
+        <v>89.48730605006686</v>
       </c>
       <c r="J26" t="n">
-        <v>357.5290199685165</v>
+        <v>357.5290199685164</v>
       </c>
       <c r="K26" t="n">
-        <v>809.9925847318674</v>
+        <v>809.9925847318672</v>
       </c>
       <c r="L26" t="n">
-        <v>1408.215408243983</v>
+        <v>1408.215408243982</v>
       </c>
       <c r="M26" t="n">
         <v>2105.523002043275</v>
@@ -6241,37 +6241,37 @@
         <v>2818.727570101718</v>
       </c>
       <c r="O26" t="n">
-        <v>3478.851158371352</v>
+        <v>3478.851158371351</v>
       </c>
       <c r="P26" t="n">
-        <v>4007.750367601549</v>
+        <v>4007.750367601548</v>
       </c>
       <c r="Q26" t="n">
-        <v>4356.758900588731</v>
+        <v>4356.75890058873</v>
       </c>
       <c r="R26" t="n">
-        <v>4474.365302503344</v>
+        <v>4474.365302503343</v>
       </c>
       <c r="S26" t="n">
-        <v>4385.760304671124</v>
+        <v>4474.365302503343</v>
       </c>
       <c r="T26" t="n">
-        <v>4183.948394607934</v>
+        <v>4408.247341350556</v>
       </c>
       <c r="U26" t="n">
-        <v>3930.494049693125</v>
+        <v>4154.792996435747</v>
       </c>
       <c r="V26" t="n">
-        <v>3599.431162349554</v>
+        <v>3823.730109092176</v>
       </c>
       <c r="W26" t="n">
-        <v>3246.66250707944</v>
+        <v>3470.961453822062</v>
       </c>
       <c r="X26" t="n">
-        <v>2873.19674881836</v>
+        <v>3097.495695560982</v>
       </c>
       <c r="Y26" t="n">
-        <v>2483.057416842548</v>
+        <v>2707.356363585171</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>90.96374430118227</v>
       </c>
       <c r="I27" t="n">
-        <v>89.48730605006688</v>
+        <v>89.48730605006686</v>
       </c>
       <c r="J27" t="n">
-        <v>230.3132676333321</v>
+        <v>230.313267633332</v>
       </c>
       <c r="K27" t="n">
-        <v>549.162091133201</v>
+        <v>549.1620911332009</v>
       </c>
       <c r="L27" t="n">
-        <v>549.162091133201</v>
+        <v>1024.216223872705</v>
       </c>
       <c r="M27" t="n">
-        <v>1122.884725356597</v>
+        <v>1597.938858096101</v>
       </c>
       <c r="N27" t="n">
-        <v>1726.200735458655</v>
+        <v>2201.254868198159</v>
       </c>
       <c r="O27" t="n">
-        <v>2255.897222153525</v>
+        <v>2553.383212710216</v>
       </c>
       <c r="P27" t="n">
         <v>2553.383212710216</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1097.529338015453</v>
+        <v>1013.04099750403</v>
       </c>
       <c r="C28" t="n">
-        <v>928.5931550875464</v>
+        <v>844.1048145761233</v>
       </c>
       <c r="D28" t="n">
-        <v>778.4765156752106</v>
+        <v>693.9881751637876</v>
       </c>
       <c r="E28" t="n">
-        <v>630.5634220928175</v>
+        <v>546.0750815813944</v>
       </c>
       <c r="F28" t="n">
-        <v>483.6734745949071</v>
+        <v>399.1851340834841</v>
       </c>
       <c r="G28" t="n">
-        <v>316.3975143401598</v>
+        <v>231.9091738287368</v>
       </c>
       <c r="H28" t="n">
-        <v>173.9756465614899</v>
+        <v>89.48730605006686</v>
       </c>
       <c r="I28" t="n">
-        <v>89.48730605006688</v>
+        <v>89.48730605006686</v>
       </c>
       <c r="J28" t="n">
         <v>164.18951272174</v>
       </c>
       <c r="K28" t="n">
-        <v>416.7850226080146</v>
+        <v>416.7850226080145</v>
       </c>
       <c r="L28" t="n">
-        <v>795.5467442751501</v>
+        <v>795.5467442751499</v>
       </c>
       <c r="M28" t="n">
         <v>1205.286996555572</v>
@@ -6411,25 +6411,25 @@
         <v>2365.037973428072</v>
       </c>
       <c r="S28" t="n">
-        <v>2365.037973428072</v>
+        <v>2180.791380185017</v>
       </c>
       <c r="T28" t="n">
-        <v>2145.09528430806</v>
+        <v>1960.848691065005</v>
       </c>
       <c r="U28" t="n">
-        <v>2145.09528430806</v>
+        <v>1960.848691065005</v>
       </c>
       <c r="V28" t="n">
-        <v>1890.410796102173</v>
+        <v>1706.164202859118</v>
       </c>
       <c r="W28" t="n">
-        <v>1727.95993288724</v>
+        <v>1643.471592375817</v>
       </c>
       <c r="X28" t="n">
-        <v>1499.970381989223</v>
+        <v>1415.4820414778</v>
       </c>
       <c r="Y28" t="n">
-        <v>1279.177802845693</v>
+        <v>1194.68946233427</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2096.457576778427</v>
+        <v>2320.756523521049</v>
       </c>
       <c r="C29" t="n">
-        <v>1727.495059838016</v>
+        <v>1951.794006580637</v>
       </c>
       <c r="D29" t="n">
-        <v>1369.229361231265</v>
+        <v>1593.528307973887</v>
       </c>
       <c r="E29" t="n">
         <v>1207.740055375642</v>
@@ -6457,10 +6457,10 @@
         <v>382.6333480729703</v>
       </c>
       <c r="H29" t="n">
-        <v>94.79580909474515</v>
+        <v>94.79580909474517</v>
       </c>
       <c r="I29" t="n">
-        <v>89.48730605006689</v>
+        <v>89.48730605006688</v>
       </c>
       <c r="J29" t="n">
         <v>357.529019968516</v>
@@ -6472,43 +6472,43 @@
         <v>1408.215408243983</v>
       </c>
       <c r="M29" t="n">
-        <v>2105.523002043276</v>
+        <v>2105.523002043275</v>
       </c>
       <c r="N29" t="n">
-        <v>2818.727570101719</v>
+        <v>2818.727570101718</v>
       </c>
       <c r="O29" t="n">
-        <v>3478.851158371352</v>
+        <v>3478.851158371351</v>
       </c>
       <c r="P29" t="n">
-        <v>4007.750367601549</v>
+        <v>4007.750367601548</v>
       </c>
       <c r="Q29" t="n">
-        <v>4356.758900588732</v>
+        <v>4356.758900588731</v>
       </c>
       <c r="R29" t="n">
-        <v>4474.365302503345</v>
+        <v>4474.365302503344</v>
       </c>
       <c r="S29" t="n">
-        <v>4385.760304671125</v>
+        <v>4474.365302503344</v>
       </c>
       <c r="T29" t="n">
-        <v>4183.948394607934</v>
+        <v>4408.247341350556</v>
       </c>
       <c r="U29" t="n">
-        <v>3930.494049693126</v>
+        <v>4154.792996435747</v>
       </c>
       <c r="V29" t="n">
-        <v>3599.431162349555</v>
+        <v>3823.730109092176</v>
       </c>
       <c r="W29" t="n">
-        <v>3246.662507079441</v>
+        <v>3470.961453822062</v>
       </c>
       <c r="X29" t="n">
-        <v>2873.196748818361</v>
+        <v>3097.495695560982</v>
       </c>
       <c r="Y29" t="n">
-        <v>2483.057416842549</v>
+        <v>2707.356363585171</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>90.96374430118229</v>
       </c>
       <c r="I30" t="n">
-        <v>89.48730605006689</v>
+        <v>89.48730605006688</v>
       </c>
       <c r="J30" t="n">
         <v>230.3132676333321</v>
       </c>
       <c r="K30" t="n">
-        <v>549.1620911332011</v>
+        <v>549.1620911332009</v>
       </c>
       <c r="L30" t="n">
         <v>1024.216223872705</v>
@@ -6554,13 +6554,13 @@
         <v>1597.938858096101</v>
       </c>
       <c r="N30" t="n">
-        <v>1597.938858096101</v>
+        <v>2201.254868198159</v>
       </c>
       <c r="O30" t="n">
-        <v>2127.635344790971</v>
+        <v>2553.383212710216</v>
       </c>
       <c r="P30" t="n">
-        <v>2533.4304079875</v>
+        <v>2553.383212710216</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.383212710216</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1097.529338015453</v>
+        <v>1013.04099750403</v>
       </c>
       <c r="C31" t="n">
-        <v>928.5931550875464</v>
+        <v>844.1048145761233</v>
       </c>
       <c r="D31" t="n">
-        <v>778.4765156752106</v>
+        <v>693.9881751637876</v>
       </c>
       <c r="E31" t="n">
-        <v>630.5634220928175</v>
+        <v>546.0750815813944</v>
       </c>
       <c r="F31" t="n">
-        <v>483.6734745949071</v>
+        <v>399.1851340834841</v>
       </c>
       <c r="G31" t="n">
-        <v>316.3975143401598</v>
+        <v>231.9091738287368</v>
       </c>
       <c r="H31" t="n">
-        <v>173.9756465614899</v>
+        <v>89.48730605006688</v>
       </c>
       <c r="I31" t="n">
-        <v>89.48730605006689</v>
+        <v>89.48730605006688</v>
       </c>
       <c r="J31" t="n">
         <v>164.18951272174</v>
@@ -6627,7 +6627,7 @@
         <v>416.7850226080146</v>
       </c>
       <c r="L31" t="n">
-        <v>795.5467442751501</v>
+        <v>795.54674427515</v>
       </c>
       <c r="M31" t="n">
         <v>1205.286996555572</v>
@@ -6645,28 +6645,28 @@
         <v>2365.037973428072</v>
       </c>
       <c r="R31" t="n">
-        <v>2294.401430082507</v>
+        <v>2365.037973428072</v>
       </c>
       <c r="S31" t="n">
-        <v>2294.401430082507</v>
+        <v>2365.037973428072</v>
       </c>
       <c r="T31" t="n">
-        <v>2294.401430082507</v>
+        <v>2187.573250618665</v>
       </c>
       <c r="U31" t="n">
-        <v>2272.061591130088</v>
+        <v>2187.573250618665</v>
       </c>
       <c r="V31" t="n">
-        <v>2017.377102924201</v>
+        <v>1932.888762412778</v>
       </c>
       <c r="W31" t="n">
-        <v>1727.95993288724</v>
+        <v>1643.471592375817</v>
       </c>
       <c r="X31" t="n">
-        <v>1499.970381989223</v>
+        <v>1415.4820414778</v>
       </c>
       <c r="Y31" t="n">
-        <v>1279.177802845693</v>
+        <v>1194.68946233427</v>
       </c>
     </row>
     <row r="32">
@@ -6697,40 +6697,40 @@
         <v>94.79580909474515</v>
       </c>
       <c r="I32" t="n">
-        <v>89.48730605006689</v>
+        <v>89.48730605006686</v>
       </c>
       <c r="J32" t="n">
-        <v>357.5290199685169</v>
+        <v>357.5290199685164</v>
       </c>
       <c r="K32" t="n">
-        <v>809.9925847318682</v>
+        <v>809.9925847318672</v>
       </c>
       <c r="L32" t="n">
-        <v>1408.215408243984</v>
+        <v>1408.215408243982</v>
       </c>
       <c r="M32" t="n">
-        <v>2105.523002043277</v>
+        <v>2105.523002043275</v>
       </c>
       <c r="N32" t="n">
-        <v>2818.72757010172</v>
+        <v>2818.727570101718</v>
       </c>
       <c r="O32" t="n">
-        <v>3478.851158371353</v>
+        <v>3478.851158371351</v>
       </c>
       <c r="P32" t="n">
-        <v>4007.75036760155</v>
+        <v>4007.750367601548</v>
       </c>
       <c r="Q32" t="n">
-        <v>4356.758900588732</v>
+        <v>4356.75890058873</v>
       </c>
       <c r="R32" t="n">
-        <v>4474.365302503345</v>
+        <v>4474.365302503343</v>
       </c>
       <c r="S32" t="n">
-        <v>4474.365302503345</v>
+        <v>4474.365302503343</v>
       </c>
       <c r="T32" t="n">
-        <v>4272.553392440154</v>
+        <v>4408.247341350556</v>
       </c>
       <c r="U32" t="n">
         <v>4154.792996435747</v>
@@ -6764,37 +6764,37 @@
         <v>618.17400357563</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9365485701745</v>
+        <v>458.9365485701744</v>
       </c>
       <c r="F33" t="n">
-        <v>312.4019905970595</v>
+        <v>312.4019905970594</v>
       </c>
       <c r="G33" t="n">
         <v>176.5480668071546</v>
       </c>
       <c r="H33" t="n">
-        <v>90.96374430118229</v>
+        <v>90.96374430118227</v>
       </c>
       <c r="I33" t="n">
-        <v>89.48730605006689</v>
+        <v>89.48730605006686</v>
       </c>
       <c r="J33" t="n">
-        <v>230.3132676333321</v>
+        <v>230.313267633332</v>
       </c>
       <c r="K33" t="n">
-        <v>230.3132676333321</v>
+        <v>549.1620911332009</v>
       </c>
       <c r="L33" t="n">
-        <v>440.8530184933634</v>
+        <v>1024.216223872705</v>
       </c>
       <c r="M33" t="n">
-        <v>1014.575652716759</v>
+        <v>1597.938858096101</v>
       </c>
       <c r="N33" t="n">
-        <v>1617.891662818818</v>
+        <v>2201.254868198159</v>
       </c>
       <c r="O33" t="n">
-        <v>2147.588149513687</v>
+        <v>2553.383212710216</v>
       </c>
       <c r="P33" t="n">
         <v>2553.383212710216</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>870.6191297253604</v>
+        <v>426.6003118961139</v>
       </c>
       <c r="C34" t="n">
-        <v>701.6829467974535</v>
+        <v>426.6003118961139</v>
       </c>
       <c r="D34" t="n">
-        <v>551.5663073851177</v>
+        <v>276.4836724837782</v>
       </c>
       <c r="E34" t="n">
-        <v>403.6532138027246</v>
+        <v>276.4836724837782</v>
       </c>
       <c r="F34" t="n">
-        <v>256.7632663048142</v>
+        <v>129.5937249858678</v>
       </c>
       <c r="G34" t="n">
-        <v>89.48730605006689</v>
+        <v>89.48730605006686</v>
       </c>
       <c r="H34" t="n">
-        <v>89.48730605006689</v>
+        <v>89.48730605006686</v>
       </c>
       <c r="I34" t="n">
-        <v>89.48730605006689</v>
+        <v>89.48730605006686</v>
       </c>
       <c r="J34" t="n">
         <v>164.18951272174</v>
       </c>
       <c r="K34" t="n">
-        <v>416.7850226080146</v>
+        <v>416.7850226080145</v>
       </c>
       <c r="L34" t="n">
-        <v>795.5467442751501</v>
+        <v>795.5467442751499</v>
       </c>
       <c r="M34" t="n">
         <v>1205.286996555572</v>
@@ -6882,28 +6882,28 @@
         <v>2365.037973428072</v>
       </c>
       <c r="R34" t="n">
-        <v>2365.037973428072</v>
+        <v>2294.401430082506</v>
       </c>
       <c r="S34" t="n">
-        <v>2365.037973428072</v>
+        <v>2110.154836839451</v>
       </c>
       <c r="T34" t="n">
-        <v>2334.230965548686</v>
+        <v>1890.21214771944</v>
       </c>
       <c r="U34" t="n">
-        <v>2045.151382839995</v>
+        <v>1601.132565010749</v>
       </c>
       <c r="V34" t="n">
-        <v>1790.466894634108</v>
+        <v>1346.448076804862</v>
       </c>
       <c r="W34" t="n">
-        <v>1501.049724597147</v>
+        <v>1057.030906767901</v>
       </c>
       <c r="X34" t="n">
-        <v>1273.06017369913</v>
+        <v>829.0413558698838</v>
       </c>
       <c r="Y34" t="n">
-        <v>1052.2675945556</v>
+        <v>608.2487767263536</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2096.457576778427</v>
+        <v>2096.457576778426</v>
       </c>
       <c r="C35" t="n">
-        <v>1727.495059838016</v>
+        <v>1727.495059838015</v>
       </c>
       <c r="D35" t="n">
-        <v>1369.229361231265</v>
+        <v>1369.229361231264</v>
       </c>
       <c r="E35" t="n">
-        <v>983.4411086330208</v>
+        <v>983.4411086330199</v>
       </c>
       <c r="F35" t="n">
-        <v>572.4552038434133</v>
+        <v>572.4552038434124</v>
       </c>
       <c r="G35" t="n">
-        <v>382.6333480729703</v>
+        <v>158.3344013303479</v>
       </c>
       <c r="H35" t="n">
-        <v>94.79580909474515</v>
+        <v>94.79580909474517</v>
       </c>
       <c r="I35" t="n">
-        <v>89.48730605006689</v>
+        <v>89.48730605006688</v>
       </c>
       <c r="J35" t="n">
         <v>357.529019968516</v>
@@ -6946,43 +6946,43 @@
         <v>1408.215408243983</v>
       </c>
       <c r="M35" t="n">
-        <v>2105.523002043276</v>
+        <v>2105.523002043275</v>
       </c>
       <c r="N35" t="n">
-        <v>2818.727570101719</v>
+        <v>2818.727570101718</v>
       </c>
       <c r="O35" t="n">
-        <v>3478.851158371352</v>
+        <v>3478.851158371351</v>
       </c>
       <c r="P35" t="n">
-        <v>4007.750367601549</v>
+        <v>4007.750367601548</v>
       </c>
       <c r="Q35" t="n">
-        <v>4356.758900588732</v>
+        <v>4356.758900588731</v>
       </c>
       <c r="R35" t="n">
-        <v>4474.365302503345</v>
+        <v>4474.365302503344</v>
       </c>
       <c r="S35" t="n">
-        <v>4385.760304671125</v>
+        <v>4385.760304671124</v>
       </c>
       <c r="T35" t="n">
         <v>4183.948394607934</v>
       </c>
       <c r="U35" t="n">
-        <v>3930.494049693126</v>
+        <v>3930.494049693125</v>
       </c>
       <c r="V35" t="n">
-        <v>3599.431162349555</v>
+        <v>3599.431162349554</v>
       </c>
       <c r="W35" t="n">
-        <v>3246.662507079441</v>
+        <v>3246.66250707944</v>
       </c>
       <c r="X35" t="n">
-        <v>2873.196748818361</v>
+        <v>2873.19674881836</v>
       </c>
       <c r="Y35" t="n">
-        <v>2483.057416842549</v>
+        <v>2483.057416842548</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2862.543532311136</v>
+        <v>941.5614425180082</v>
       </c>
       <c r="C36" t="n">
-        <v>2688.09050303001</v>
+        <v>767.1084132368812</v>
       </c>
       <c r="D36" t="n">
-        <v>2539.156093368758</v>
+        <v>618.17400357563</v>
       </c>
       <c r="E36" t="n">
-        <v>2379.918638363303</v>
+        <v>458.9365485701745</v>
       </c>
       <c r="F36" t="n">
-        <v>2233.384080390188</v>
+        <v>312.4019905970595</v>
       </c>
       <c r="G36" t="n">
-        <v>2097.530156600283</v>
+        <v>176.5480668071546</v>
       </c>
       <c r="H36" t="n">
-        <v>2011.94583409431</v>
+        <v>90.96374430118229</v>
       </c>
       <c r="I36" t="n">
-        <v>2010.469395843195</v>
+        <v>89.48730605006688</v>
       </c>
       <c r="J36" t="n">
-        <v>2151.29535742646</v>
+        <v>230.3132676333321</v>
       </c>
       <c r="K36" t="n">
-        <v>2151.29535742646</v>
+        <v>549.1620911332009</v>
       </c>
       <c r="L36" t="n">
-        <v>2626.349490165964</v>
+        <v>1024.216223872705</v>
       </c>
       <c r="M36" t="n">
-        <v>3200.07212438936</v>
+        <v>1597.938858096101</v>
       </c>
       <c r="N36" t="n">
-        <v>3803.388134491418</v>
+        <v>2201.254868198159</v>
       </c>
       <c r="O36" t="n">
-        <v>4333.084621186288</v>
+        <v>2553.383212710216</v>
       </c>
       <c r="P36" t="n">
-        <v>4474.365302503345</v>
+        <v>2553.383212710216</v>
       </c>
       <c r="Q36" t="n">
-        <v>4474.365302503345</v>
+        <v>2553.383212710216</v>
       </c>
       <c r="R36" t="n">
-        <v>4474.365302503345</v>
+        <v>2553.383212710216</v>
       </c>
       <c r="S36" t="n">
-        <v>4354.385143885489</v>
+        <v>2433.40305409236</v>
       </c>
       <c r="T36" t="n">
-        <v>4163.794481681333</v>
+        <v>2242.812391888205</v>
       </c>
       <c r="U36" t="n">
-        <v>3935.760133261635</v>
+        <v>2014.778043468507</v>
       </c>
       <c r="V36" t="n">
-        <v>3700.608025029893</v>
+        <v>1779.625935236764</v>
       </c>
       <c r="W36" t="n">
-        <v>3446.370668301691</v>
+        <v>1525.388578508563</v>
       </c>
       <c r="X36" t="n">
-        <v>3238.519168096158</v>
+        <v>1317.53707830303</v>
       </c>
       <c r="Y36" t="n">
-        <v>3030.758869331205</v>
+        <v>1109.776779538076</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2535.927640971387</v>
+        <v>703.343169470613</v>
       </c>
       <c r="C37" t="n">
-        <v>2366.99145804348</v>
+        <v>534.4069865427061</v>
       </c>
       <c r="D37" t="n">
-        <v>2283.302975636761</v>
+        <v>384.2903471303704</v>
       </c>
       <c r="E37" t="n">
-        <v>2283.302975636761</v>
+        <v>236.3772535479772</v>
       </c>
       <c r="F37" t="n">
-        <v>2283.302975636761</v>
+        <v>89.48730605006688</v>
       </c>
       <c r="G37" t="n">
-        <v>2283.302975636761</v>
+        <v>89.48730605006688</v>
       </c>
       <c r="H37" t="n">
-        <v>2283.302975636761</v>
+        <v>89.48730605006688</v>
       </c>
       <c r="I37" t="n">
-        <v>2198.814635125339</v>
+        <v>89.48730605006688</v>
       </c>
       <c r="J37" t="n">
-        <v>2273.516841797012</v>
+        <v>164.18951272174</v>
       </c>
       <c r="K37" t="n">
-        <v>2526.112351683286</v>
+        <v>416.7850226080146</v>
       </c>
       <c r="L37" t="n">
-        <v>2904.874073350422</v>
+        <v>795.54674427515</v>
       </c>
       <c r="M37" t="n">
-        <v>3314.614325630844</v>
+        <v>1205.286996555572</v>
       </c>
       <c r="N37" t="n">
-        <v>3720.046486948385</v>
+        <v>1610.719157873113</v>
       </c>
       <c r="O37" t="n">
-        <v>4078.512413507505</v>
+        <v>1969.185084432233</v>
       </c>
       <c r="P37" t="n">
-        <v>4361.721258352365</v>
+        <v>2252.393929277093</v>
       </c>
       <c r="Q37" t="n">
-        <v>4474.365302503345</v>
+        <v>2365.037973428072</v>
       </c>
       <c r="R37" t="n">
-        <v>4403.728759157779</v>
+        <v>2365.037973428072</v>
       </c>
       <c r="S37" t="n">
-        <v>4219.482165914725</v>
+        <v>2365.037973428072</v>
       </c>
       <c r="T37" t="n">
-        <v>3999.539476794713</v>
+        <v>2166.955005293939</v>
       </c>
       <c r="U37" t="n">
-        <v>3710.459894086022</v>
+        <v>1877.875422585248</v>
       </c>
       <c r="V37" t="n">
-        <v>3455.775405880135</v>
+        <v>1623.190934379361</v>
       </c>
       <c r="W37" t="n">
-        <v>3166.358235843174</v>
+        <v>1333.7737643424</v>
       </c>
       <c r="X37" t="n">
-        <v>2938.368684945157</v>
+        <v>1105.784213444383</v>
       </c>
       <c r="Y37" t="n">
-        <v>2717.576105801627</v>
+        <v>884.9916343008528</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2096.457576778427</v>
+        <v>2096.457576778425</v>
       </c>
       <c r="C38" t="n">
-        <v>1727.495059838016</v>
+        <v>1727.495059838014</v>
       </c>
       <c r="D38" t="n">
-        <v>1369.229361231265</v>
+        <v>1369.229361231263</v>
       </c>
       <c r="E38" t="n">
-        <v>983.4411086330208</v>
+        <v>983.441108633019</v>
       </c>
       <c r="F38" t="n">
-        <v>796.7541505860347</v>
+        <v>572.4552038434115</v>
       </c>
       <c r="G38" t="n">
-        <v>382.6333480729702</v>
+        <v>158.334401330347</v>
       </c>
       <c r="H38" t="n">
-        <v>94.79580909474512</v>
+        <v>94.79580909474515</v>
       </c>
       <c r="I38" t="n">
-        <v>89.48730605006689</v>
+        <v>89.48730605006686</v>
       </c>
       <c r="J38" t="n">
-        <v>357.5290199685166</v>
+        <v>357.5290199685164</v>
       </c>
       <c r="K38" t="n">
-        <v>809.9925847318676</v>
+        <v>809.9925847318672</v>
       </c>
       <c r="L38" t="n">
-        <v>1408.215408243983</v>
+        <v>1408.215408243982</v>
       </c>
       <c r="M38" t="n">
-        <v>2105.523002043276</v>
+        <v>2105.523002043275</v>
       </c>
       <c r="N38" t="n">
-        <v>2818.727570101719</v>
+        <v>2818.727570101718</v>
       </c>
       <c r="O38" t="n">
-        <v>3478.851158371353</v>
+        <v>3478.851158371351</v>
       </c>
       <c r="P38" t="n">
-        <v>4007.750367601549</v>
+        <v>4007.750367601548</v>
       </c>
       <c r="Q38" t="n">
-        <v>4356.758900588732</v>
+        <v>4356.75890058873</v>
       </c>
       <c r="R38" t="n">
-        <v>4474.365302503345</v>
+        <v>4474.365302503343</v>
       </c>
       <c r="S38" t="n">
-        <v>4385.760304671125</v>
+        <v>4385.760304671123</v>
       </c>
       <c r="T38" t="n">
-        <v>4183.948394607934</v>
+        <v>4183.948394607933</v>
       </c>
       <c r="U38" t="n">
-        <v>3930.494049693126</v>
+        <v>3930.494049693124</v>
       </c>
       <c r="V38" t="n">
-        <v>3599.431162349555</v>
+        <v>3599.431162349553</v>
       </c>
       <c r="W38" t="n">
-        <v>3246.662507079441</v>
+        <v>3246.662507079439</v>
       </c>
       <c r="X38" t="n">
-        <v>2873.196748818361</v>
+        <v>2873.196748818359</v>
       </c>
       <c r="Y38" t="n">
-        <v>2483.057416842549</v>
+        <v>2483.057416842547</v>
       </c>
     </row>
     <row r="39">
@@ -7247,16 +7247,16 @@
         <v>176.5480668071546</v>
       </c>
       <c r="H39" t="n">
-        <v>90.96374430118226</v>
+        <v>90.96374430118227</v>
       </c>
       <c r="I39" t="n">
-        <v>89.48730605006689</v>
+        <v>89.48730605006686</v>
       </c>
       <c r="J39" t="n">
-        <v>230.3132676333322</v>
+        <v>230.313267633332</v>
       </c>
       <c r="K39" t="n">
-        <v>549.1620911332011</v>
+        <v>549.1620911332009</v>
       </c>
       <c r="L39" t="n">
         <v>1024.216223872705</v>
@@ -7265,13 +7265,13 @@
         <v>1597.938858096101</v>
       </c>
       <c r="N39" t="n">
-        <v>2201.25486819816</v>
+        <v>2201.254868198159</v>
       </c>
       <c r="O39" t="n">
-        <v>2332.039155891599</v>
+        <v>2553.383212710216</v>
       </c>
       <c r="P39" t="n">
-        <v>2332.039155891599</v>
+        <v>2553.383212710216</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.383212710216</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2811.010275872724</v>
+        <v>497.2368552416797</v>
       </c>
       <c r="C40" t="n">
-        <v>2811.010275872724</v>
+        <v>328.3006723137728</v>
       </c>
       <c r="D40" t="n">
-        <v>2660.893636460389</v>
+        <v>178.1840329014371</v>
       </c>
       <c r="E40" t="n">
-        <v>2512.980542877996</v>
+        <v>178.1840329014371</v>
       </c>
       <c r="F40" t="n">
-        <v>2366.090595380085</v>
+        <v>89.48730605006686</v>
       </c>
       <c r="G40" t="n">
-        <v>2198.814635125338</v>
+        <v>89.48730605006686</v>
       </c>
       <c r="H40" t="n">
-        <v>2198.814635125338</v>
+        <v>89.48730605006686</v>
       </c>
       <c r="I40" t="n">
-        <v>2198.814635125338</v>
+        <v>89.48730605006686</v>
       </c>
       <c r="J40" t="n">
-        <v>2273.516841797011</v>
+        <v>164.18951272174</v>
       </c>
       <c r="K40" t="n">
-        <v>2526.112351683286</v>
+        <v>416.7850226080145</v>
       </c>
       <c r="L40" t="n">
-        <v>2904.874073350421</v>
+        <v>795.5467442751499</v>
       </c>
       <c r="M40" t="n">
-        <v>3314.614325630844</v>
+        <v>1205.286996555572</v>
       </c>
       <c r="N40" t="n">
-        <v>3720.046486948385</v>
+        <v>1610.719157873113</v>
       </c>
       <c r="O40" t="n">
-        <v>4078.512413507505</v>
+        <v>1969.185084432233</v>
       </c>
       <c r="P40" t="n">
-        <v>4361.721258352365</v>
+        <v>2252.393929277093</v>
       </c>
       <c r="Q40" t="n">
-        <v>4474.365302503345</v>
+        <v>2365.037973428072</v>
       </c>
       <c r="R40" t="n">
-        <v>4403.728759157779</v>
+        <v>2365.037973428072</v>
       </c>
       <c r="S40" t="n">
-        <v>4219.482165914725</v>
+        <v>2180.791380185017</v>
       </c>
       <c r="T40" t="n">
-        <v>3999.539476794713</v>
+        <v>1960.848691065005</v>
       </c>
       <c r="U40" t="n">
-        <v>3710.459894086022</v>
+        <v>1671.769108356315</v>
       </c>
       <c r="V40" t="n">
-        <v>3455.775405880135</v>
+        <v>1417.084620150428</v>
       </c>
       <c r="W40" t="n">
-        <v>3166.358235843174</v>
+        <v>1127.667450113467</v>
       </c>
       <c r="X40" t="n">
-        <v>2938.368684945157</v>
+        <v>899.6778992154495</v>
       </c>
       <c r="Y40" t="n">
-        <v>2811.010275872724</v>
+        <v>678.8853200719194</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2096.457576778427</v>
+        <v>2096.457576778426</v>
       </c>
       <c r="C41" t="n">
-        <v>1727.495059838016</v>
+        <v>1727.495059838015</v>
       </c>
       <c r="D41" t="n">
-        <v>1369.229361231265</v>
+        <v>1369.229361231264</v>
       </c>
       <c r="E41" t="n">
-        <v>983.4411086330208</v>
+        <v>983.4411086330199</v>
       </c>
       <c r="F41" t="n">
-        <v>572.4552038434133</v>
+        <v>572.4552038434124</v>
       </c>
       <c r="G41" t="n">
-        <v>158.3344013303488</v>
+        <v>158.3344013303479</v>
       </c>
       <c r="H41" t="n">
-        <v>89.48730605006689</v>
+        <v>94.79580909474517</v>
       </c>
       <c r="I41" t="n">
-        <v>89.48730605006689</v>
+        <v>89.48730605006688</v>
       </c>
       <c r="J41" t="n">
         <v>357.529019968516</v>
       </c>
       <c r="K41" t="n">
-        <v>809.9925847318671</v>
+        <v>809.9925847318677</v>
       </c>
       <c r="L41" t="n">
         <v>1408.215408243983</v>
       </c>
       <c r="M41" t="n">
-        <v>2105.523002043277</v>
+        <v>2105.523002043276</v>
       </c>
       <c r="N41" t="n">
-        <v>2818.72757010172</v>
+        <v>2818.727570101719</v>
       </c>
       <c r="O41" t="n">
-        <v>3478.851158371353</v>
+        <v>3478.851158371352</v>
       </c>
       <c r="P41" t="n">
-        <v>4007.75036760155</v>
+        <v>4007.750367601549</v>
       </c>
       <c r="Q41" t="n">
-        <v>4356.758900588732</v>
+        <v>4356.758900588731</v>
       </c>
       <c r="R41" t="n">
-        <v>4474.365302503345</v>
+        <v>4474.365302503344</v>
       </c>
       <c r="S41" t="n">
-        <v>4385.760304671125</v>
+        <v>4385.760304671124</v>
       </c>
       <c r="T41" t="n">
         <v>4183.948394607934</v>
       </c>
       <c r="U41" t="n">
-        <v>3930.494049693126</v>
+        <v>3930.494049693125</v>
       </c>
       <c r="V41" t="n">
-        <v>3599.431162349555</v>
+        <v>3599.431162349554</v>
       </c>
       <c r="W41" t="n">
-        <v>3246.662507079441</v>
+        <v>3246.66250707944</v>
       </c>
       <c r="X41" t="n">
-        <v>2873.196748818361</v>
+        <v>2873.19674881836</v>
       </c>
       <c r="Y41" t="n">
-        <v>2483.057416842549</v>
+        <v>2483.057416842548</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>90.96374430118229</v>
       </c>
       <c r="I42" t="n">
-        <v>89.48730605006689</v>
+        <v>89.48730605006688</v>
       </c>
       <c r="J42" t="n">
         <v>230.3132676333321</v>
       </c>
       <c r="K42" t="n">
-        <v>230.3132676333321</v>
+        <v>549.1620911332009</v>
       </c>
       <c r="L42" t="n">
-        <v>440.8530184933634</v>
+        <v>1024.216223872705</v>
       </c>
       <c r="M42" t="n">
-        <v>1014.575652716759</v>
+        <v>1597.938858096101</v>
       </c>
       <c r="N42" t="n">
-        <v>1617.891662818818</v>
+        <v>2201.254868198159</v>
       </c>
       <c r="O42" t="n">
-        <v>2147.588149513687</v>
+        <v>2553.383212710216</v>
       </c>
       <c r="P42" t="n">
         <v>2553.383212710216</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>608.2487767263541</v>
+        <v>950.6393905175429</v>
       </c>
       <c r="C43" t="n">
-        <v>608.2487767263541</v>
+        <v>781.703207589636</v>
       </c>
       <c r="D43" t="n">
-        <v>458.1321373140183</v>
+        <v>631.5865681773003</v>
       </c>
       <c r="E43" t="n">
-        <v>458.1321373140183</v>
+        <v>483.6734745949071</v>
       </c>
       <c r="F43" t="n">
-        <v>458.1321373140183</v>
+        <v>483.6734745949071</v>
       </c>
       <c r="G43" t="n">
         <v>316.3975143401598</v>
@@ -7566,7 +7566,7 @@
         <v>173.9756465614899</v>
       </c>
       <c r="I43" t="n">
-        <v>89.48730605006689</v>
+        <v>89.48730605006688</v>
       </c>
       <c r="J43" t="n">
         <v>164.18951272174</v>
@@ -7575,7 +7575,7 @@
         <v>416.7850226080146</v>
       </c>
       <c r="L43" t="n">
-        <v>795.5467442751501</v>
+        <v>795.54674427515</v>
       </c>
       <c r="M43" t="n">
         <v>1205.286996555572</v>
@@ -7593,28 +7593,28 @@
         <v>2365.037973428072</v>
       </c>
       <c r="R43" t="n">
-        <v>2294.401430082507</v>
+        <v>2294.401430082506</v>
       </c>
       <c r="S43" t="n">
-        <v>2110.154836839452</v>
+        <v>2294.401430082506</v>
       </c>
       <c r="T43" t="n">
-        <v>1890.21214771944</v>
+        <v>2074.458740962494</v>
       </c>
       <c r="U43" t="n">
-        <v>1601.132565010749</v>
+        <v>1904.379064488648</v>
       </c>
       <c r="V43" t="n">
-        <v>1346.448076804862</v>
+        <v>1649.694576282761</v>
       </c>
       <c r="W43" t="n">
-        <v>1057.030906767902</v>
+        <v>1360.2774062458</v>
       </c>
       <c r="X43" t="n">
-        <v>829.0413558698842</v>
+        <v>1132.287855347783</v>
       </c>
       <c r="Y43" t="n">
-        <v>608.2487767263541</v>
+        <v>1132.287855347783</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2320.756523521049</v>
+        <v>2096.457576778426</v>
       </c>
       <c r="C44" t="n">
-        <v>1951.794006580637</v>
+        <v>1727.495059838015</v>
       </c>
       <c r="D44" t="n">
         <v>1593.528307973887</v>
@@ -7642,25 +7642,25 @@
         <v>382.6333480729703</v>
       </c>
       <c r="H44" t="n">
-        <v>94.79580909474515</v>
+        <v>94.79580909474517</v>
       </c>
       <c r="I44" t="n">
-        <v>89.48730605006689</v>
+        <v>89.48730605006688</v>
       </c>
       <c r="J44" t="n">
-        <v>357.529019968516</v>
+        <v>357.5290199685164</v>
       </c>
       <c r="K44" t="n">
         <v>809.9925847318673</v>
       </c>
       <c r="L44" t="n">
-        <v>1408.215408243985</v>
+        <v>1408.215408243983</v>
       </c>
       <c r="M44" t="n">
-        <v>2105.523002043278</v>
+        <v>2105.523002043276</v>
       </c>
       <c r="N44" t="n">
-        <v>2818.727570101721</v>
+        <v>2818.727570101719</v>
       </c>
       <c r="O44" t="n">
         <v>3478.851158371353</v>
@@ -7669,31 +7669,31 @@
         <v>4007.750367601549</v>
       </c>
       <c r="Q44" t="n">
-        <v>4356.758900588732</v>
+        <v>4356.758900588731</v>
       </c>
       <c r="R44" t="n">
-        <v>4474.365302503345</v>
+        <v>4474.365302503344</v>
       </c>
       <c r="S44" t="n">
-        <v>4474.365302503345</v>
+        <v>4385.760304671124</v>
       </c>
       <c r="T44" t="n">
-        <v>4408.247341350556</v>
+        <v>4183.948394607934</v>
       </c>
       <c r="U44" t="n">
-        <v>4154.792996435747</v>
+        <v>3930.494049693125</v>
       </c>
       <c r="V44" t="n">
-        <v>3823.730109092176</v>
+        <v>3599.431162349554</v>
       </c>
       <c r="W44" t="n">
-        <v>3470.961453822062</v>
+        <v>3246.66250707944</v>
       </c>
       <c r="X44" t="n">
-        <v>3097.495695560982</v>
+        <v>2873.19674881836</v>
       </c>
       <c r="Y44" t="n">
-        <v>2707.356363585171</v>
+        <v>2483.057416842548</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>90.96374430118229</v>
       </c>
       <c r="I45" t="n">
-        <v>89.48730605006689</v>
+        <v>89.48730605006688</v>
       </c>
       <c r="J45" t="n">
         <v>230.3132676333321</v>
       </c>
       <c r="K45" t="n">
-        <v>549.1620911332011</v>
+        <v>549.1620911332009</v>
       </c>
       <c r="L45" t="n">
         <v>1024.216223872705</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1097.529338015453</v>
+        <v>1013.04099750403</v>
       </c>
       <c r="C46" t="n">
-        <v>928.5931550875464</v>
+        <v>844.1048145761233</v>
       </c>
       <c r="D46" t="n">
-        <v>778.4765156752106</v>
+        <v>693.9881751637876</v>
       </c>
       <c r="E46" t="n">
-        <v>630.5634220928175</v>
+        <v>546.0750815813944</v>
       </c>
       <c r="F46" t="n">
-        <v>483.6734745949071</v>
+        <v>399.1851340834841</v>
       </c>
       <c r="G46" t="n">
-        <v>316.3975143401598</v>
+        <v>231.9091738287368</v>
       </c>
       <c r="H46" t="n">
-        <v>173.9756465614899</v>
+        <v>89.48730605006688</v>
       </c>
       <c r="I46" t="n">
-        <v>89.48730605006689</v>
+        <v>89.48730605006688</v>
       </c>
       <c r="J46" t="n">
         <v>164.18951272174</v>
@@ -7812,7 +7812,7 @@
         <v>416.7850226080146</v>
       </c>
       <c r="L46" t="n">
-        <v>795.5467442751501</v>
+        <v>795.54674427515</v>
       </c>
       <c r="M46" t="n">
         <v>1205.286996555572</v>
@@ -7839,19 +7839,19 @@
         <v>2365.037973428072</v>
       </c>
       <c r="U46" t="n">
-        <v>2272.061591130088</v>
+        <v>2075.958390719381</v>
       </c>
       <c r="V46" t="n">
-        <v>2017.377102924201</v>
+        <v>1821.273902513494</v>
       </c>
       <c r="W46" t="n">
-        <v>1727.95993288724</v>
+        <v>1531.856732476533</v>
       </c>
       <c r="X46" t="n">
-        <v>1499.970381989223</v>
+        <v>1303.867181578516</v>
       </c>
       <c r="Y46" t="n">
-        <v>1279.177802845693</v>
+        <v>1194.68946233427</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>193.3273467878354</v>
+        <v>84.94186588374765</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154985</v>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>193.3273467878345</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>193.3273467878343</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.546395060290962</v>
+        <v>0.5463950602909335</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22564,10 +22564,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>47.06732354373202</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22612,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22716,7 +22716,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22755,22 +22755,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>5.940287311156936</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22786,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>37.60909007583638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22941,19 +22941,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>50.77485310252511</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -23004,13 +23004,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23029,16 +23029,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>311.92506101039</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9338715566937</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.7321536188796</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23226,22 +23226,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>89.17712508496182</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.8639731922165</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5722280944081</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2121353820159</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>88.83665715512021</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23260,16 +23260,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>213.5067756084874</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>126.4919521192232</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23436,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>60.63591895417012</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>180.5261564160623</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>150.0882792706455</v>
       </c>
       <c r="H14" t="n">
-        <v>111.4435131414759</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>52.5154436339465</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>69.34270184147189</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23734,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>152.5102467240795</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>156.5120179413407</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292592</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>126.0419910850336</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>21.59472895491385</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>207.6735425588473</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>134.5760089460813</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,16 +24022,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>245.0346529217331</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>166.349743869235</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>216.8005392609656</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>5.255418014231481</v>
+        <v>5.255418014231509</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>87.71894785389789</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>129.0815914070668</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.9976491008832</v>
+        <v>42.05318664749895</v>
       </c>
       <c r="I25" t="n">
-        <v>83.64345710630879</v>
+        <v>83.6434571063088</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>69.93017791211024</v>
+        <v>69.93017791211025</v>
       </c>
       <c r="S25" t="n">
         <v>182.404127310624</v>
       </c>
       <c r="T25" t="n">
-        <v>187.2443244282193</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.188786881604</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>216.8005392609647</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>5.255418014231481</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>87.71894785389792</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>134.3370094212991</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>83.6434571063088</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>69.93017791211024</v>
+        <v>69.93017791211025</v>
       </c>
       <c r="S28" t="n">
-        <v>182.404127310624</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>125.6966437538072</v>
+        <v>224.4573139581228</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>222.0559572751951</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>87.71894785389792</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>134.3370094212982</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>83.6434571063088</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>69.93017791211025</v>
       </c>
       <c r="S31" t="n">
         <v>182.404127310624</v>
       </c>
       <c r="T31" t="n">
-        <v>217.7432622288117</v>
+        <v>42.05318664749851</v>
       </c>
       <c r="U31" t="n">
-        <v>264.0723463187095</v>
+        <v>286.188786881604</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>87.71894785389789</v>
+        <v>87.71894785389792</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>134.3370094212991</v>
       </c>
       <c r="U32" t="n">
-        <v>134.3370094212974</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>125.8978459057569</v>
       </c>
       <c r="H34" t="n">
         <v>140.9976491008832</v>
       </c>
       <c r="I34" t="n">
-        <v>83.64345710630879</v>
+        <v>83.6434571063088</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>69.93017791211024</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>182.404127310624</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>187.2443244282193</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>222.0559572751953</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>222.0559572751962</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>65.76387543556078</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.6032006521999</v>
@@ -25332,7 +25332,7 @@
         <v>140.9976491008832</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>83.6434571063088</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>69.93017791211025</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>182.404127310624</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>21.64112377602009</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>222.0559572751952</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>222.055957275197</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>57.61128844007476</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.6032006521999</v>
       </c>
       <c r="H40" t="n">
         <v>140.9976491008832</v>
       </c>
       <c r="I40" t="n">
-        <v>83.64345710630877</v>
+        <v>83.6434571063088</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>69.93017791211025</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>92.49982837038657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>216.8005392609638</v>
+        <v>222.0559572751962</v>
       </c>
       <c r="I41" t="n">
-        <v>5.255418014231481</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>25.28592390807989</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>182.404127310624</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>117.8099071724959</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>222.0559572751961</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>87.71894785389789</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>134.3370094212973</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>83.6434571063088</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>69.93017791211024</v>
+        <v>69.93017791211025</v>
       </c>
       <c r="S46" t="n">
         <v>182.404127310624</v>
@@ -26079,7 +26079,7 @@
         <v>217.7432622288117</v>
       </c>
       <c r="U46" t="n">
-        <v>194.1421684065995</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>110.4987113002911</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>753598.1006282513</v>
+        <v>1004516.311279051</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>753598.1006282512</v>
+        <v>1004516.311279051</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>826702.0932151712</v>
+        <v>995190.2268092</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>828152.1409704072</v>
+        <v>828152.1409704071</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>828152.1409704072</v>
+        <v>828152.1409704071</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>828152.1409704072</v>
+        <v>828152.1409704073</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>954668.9138456963</v>
+        <v>954668.9138456961</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>954668.9138456964</v>
+        <v>954668.9138456963</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>954668.9138456964</v>
+        <v>954668.9138456961</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>954668.9138456966</v>
+        <v>954668.913845696</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>954668.9138456964</v>
+        <v>954668.9138456963</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>954668.9138456964</v>
+        <v>954668.9138456961</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>336568.7935437394</v>
+        <v>451572.9734253558</v>
       </c>
       <c r="C2" t="n">
-        <v>336568.7935437394</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="D2" t="n">
-        <v>374349.2455280926</v>
+        <v>451572.973425356</v>
       </c>
       <c r="E2" t="n">
-        <v>375096.8088680126</v>
+        <v>375096.8088680129</v>
       </c>
       <c r="F2" t="n">
-        <v>375096.8088680127</v>
+        <v>375096.8088680129</v>
       </c>
       <c r="G2" t="n">
         <v>375096.8088680127</v>
       </c>
       <c r="H2" t="n">
-        <v>375096.8088680127</v>
+        <v>375096.8088680126</v>
       </c>
       <c r="I2" t="n">
-        <v>433083.6631025203</v>
+        <v>433083.6631025202</v>
       </c>
       <c r="J2" t="n">
-        <v>433083.6631025203</v>
+        <v>433083.66310252</v>
       </c>
       <c r="K2" t="n">
         <v>433083.6631025202</v>
       </c>
       <c r="L2" t="n">
-        <v>433083.6631025203</v>
+        <v>433083.66310252</v>
       </c>
       <c r="M2" t="n">
-        <v>433083.6631025202</v>
+        <v>433083.6631025201</v>
       </c>
       <c r="N2" t="n">
-        <v>433083.6631025202</v>
+        <v>433083.66310252</v>
       </c>
       <c r="O2" t="n">
-        <v>433083.6631025202</v>
+        <v>433083.6631025201</v>
       </c>
       <c r="P2" t="n">
         <v>433083.6631025203</v>
@@ -26371,22 +26371,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>188889.5747428875</v>
+        <v>188889.5747428877</v>
       </c>
       <c r="E3" t="n">
-        <v>3532.782152305605</v>
+        <v>3532.782152305457</v>
       </c>
       <c r="F3" t="n">
         <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>252780.4052922514</v>
+        <v>252780.4052922509</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099826</v>
@@ -26395,13 +26395,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>47356.91677008683</v>
+        <v>47356.91677008686</v>
       </c>
       <c r="M3" t="n">
-        <v>922.661869242448</v>
+        <v>922.6618692425614</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19788.00270570974</v>
+        <v>139134.5471223412</v>
       </c>
       <c r="C4" t="n">
-        <v>19788.00270570972</v>
+        <v>139134.5471223413</v>
       </c>
       <c r="D4" t="n">
-        <v>10558.76396175957</v>
+        <v>90698.33002793042</v>
       </c>
       <c r="E4" t="n">
         <v>10380.34706710378</v>
@@ -26478,16 +26478,16 @@
         <v>107642.9682537726</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="I5" t="n">
         <v>96876.42644880613</v>
@@ -26496,22 +26496,22 @@
         <v>96876.42644880613</v>
       </c>
       <c r="K5" t="n">
-        <v>96876.42644880616</v>
+        <v>96876.42644880613</v>
       </c>
       <c r="L5" t="n">
-        <v>96876.42644880616</v>
+        <v>96876.42644880613</v>
       </c>
       <c r="M5" t="n">
-        <v>96876.42644880616</v>
+        <v>96876.42644880613</v>
       </c>
       <c r="N5" t="n">
-        <v>96876.42644880616</v>
+        <v>96876.42644880613</v>
       </c>
       <c r="O5" t="n">
-        <v>96876.42644880616</v>
+        <v>96876.42644880613</v>
       </c>
       <c r="P5" t="n">
-        <v>96876.42644880616</v>
+        <v>96876.42644880613</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-890908.7651777351</v>
+        <v>-895251.1297127502</v>
       </c>
       <c r="C6" t="n">
-        <v>223843.0183981849</v>
+        <v>219500.6538631699</v>
       </c>
       <c r="D6" t="n">
-        <v>67257.93856967296</v>
+        <v>64342.10040076527</v>
       </c>
       <c r="E6" t="n">
-        <v>286877.33908721</v>
+        <v>283401.1497891492</v>
       </c>
       <c r="F6" t="n">
-        <v>290410.1212395154</v>
+        <v>286933.9319414545</v>
       </c>
       <c r="G6" t="n">
-        <v>290410.1212395154</v>
+        <v>286933.9319414545</v>
       </c>
       <c r="H6" t="n">
-        <v>290410.1212395158</v>
+        <v>286933.9319414544</v>
       </c>
       <c r="I6" t="n">
-        <v>72897.85111675502</v>
+        <v>72057.42792026284</v>
       </c>
       <c r="J6" t="n">
-        <v>158073.0785990237</v>
+        <v>157232.655402531</v>
       </c>
       <c r="K6" t="n">
-        <v>325678.2564090063</v>
+        <v>324837.8332125138</v>
       </c>
       <c r="L6" t="n">
-        <v>278321.3396389197</v>
+        <v>277480.9164424268</v>
       </c>
       <c r="M6" t="n">
-        <v>324755.5945397639</v>
+        <v>323915.1713432712</v>
       </c>
       <c r="N6" t="n">
-        <v>325678.2564090062</v>
+        <v>324837.8332125137</v>
       </c>
       <c r="O6" t="n">
-        <v>325678.2564090064</v>
+        <v>324837.8332125137</v>
       </c>
       <c r="P6" t="n">
-        <v>325678.2564090064</v>
+        <v>324837.8332125139</v>
       </c>
     </row>
   </sheetData>
@@ -26749,13 +26749,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1324.131828016299</v>
@@ -26773,7 +26773,7 @@
         <v>1324.131828016299</v>
       </c>
       <c r="N3" t="n">
-        <v>1324.1318280163</v>
+        <v>1324.131828016299</v>
       </c>
       <c r="O3" t="n">
         <v>1324.131828016299</v>
@@ -26795,19 +26795,19 @@
         <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>827.699019368993</v>
+        <v>827.6990193689932</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="I4" t="n">
         <v>1118.591325625836</v>
@@ -26965,22 +26965,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>152.6905150447474</v>
+        <v>152.6905150447476</v>
       </c>
       <c r="E3" t="n">
-        <v>3.0212934310116</v>
+        <v>3.021293431011372</v>
       </c>
       <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>234.355127423001</v>
+        <v>234.3551274230006</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>187.114187268954</v>
+        <v>187.1141872689541</v>
       </c>
       <c r="E4" t="n">
-        <v>3.702436033299819</v>
+        <v>3.702436033299932</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>287.189870223543</v>
+        <v>287.1898702235426</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>187.114187268954</v>
+        <v>187.1141872689541</v>
       </c>
       <c r="M4" t="n">
-        <v>3.702436033299819</v>
+        <v>3.702436033300273</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>187.114187268954</v>
+        <v>187.1141872689541</v>
       </c>
       <c r="M4" t="n">
-        <v>3.702436033299819</v>
+        <v>3.702436033299932</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>156.8599593125946</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>262.5773610745044</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>110.3954217660173</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>43.08974057846835</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>285.7642509296713</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.51626366671982</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>89.17712508496179</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>99.65458214421005</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.36886595844135</v>
+        <v>4.368865958441351</v>
       </c>
       <c r="H8" t="n">
-        <v>44.74264849688749</v>
+        <v>44.7426484968875</v>
       </c>
       <c r="I8" t="n">
-        <v>168.4307048628103</v>
+        <v>168.4307048628104</v>
       </c>
       <c r="J8" t="n">
-        <v>370.8020371402619</v>
+        <v>370.802037140262</v>
       </c>
       <c r="K8" t="n">
-        <v>555.7361331610844</v>
+        <v>555.7361331610845</v>
       </c>
       <c r="L8" t="n">
-        <v>689.439814736734</v>
+        <v>689.4398147367341</v>
       </c>
       <c r="M8" t="n">
-        <v>767.1346347251653</v>
+        <v>767.1346347251655</v>
       </c>
       <c r="N8" t="n">
-        <v>779.5476751295869</v>
+        <v>779.547675129587</v>
       </c>
       <c r="O8" t="n">
-        <v>736.1047642553357</v>
+        <v>736.1047642553358</v>
       </c>
       <c r="P8" t="n">
-        <v>628.2483859063148</v>
+        <v>628.2483859063149</v>
       </c>
       <c r="Q8" t="n">
-        <v>471.7883737696337</v>
+        <v>471.7883737696338</v>
       </c>
       <c r="R8" t="n">
-        <v>274.4357762619417</v>
+        <v>274.4357762619418</v>
       </c>
       <c r="S8" t="n">
-        <v>99.55553302798236</v>
+        <v>99.55553302798239</v>
       </c>
       <c r="T8" t="n">
         <v>19.12471073307702</v>
@@ -31594,37 +31594,37 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.337549366349069</v>
+        <v>2.33754936634907</v>
       </c>
       <c r="H9" t="n">
-        <v>22.57580572237128</v>
+        <v>22.57580572237129</v>
       </c>
       <c r="I9" t="n">
-        <v>80.48141458701842</v>
+        <v>80.48141458701843</v>
       </c>
       <c r="J9" t="n">
-        <v>220.8471530724794</v>
+        <v>220.8471530724795</v>
       </c>
       <c r="K9" t="n">
-        <v>377.4629606178671</v>
+        <v>377.4629606178672</v>
       </c>
       <c r="L9" t="n">
-        <v>507.5455323732925</v>
+        <v>507.5455323732926</v>
       </c>
       <c r="M9" t="n">
-        <v>592.2816969034462</v>
+        <v>592.2816969034463</v>
       </c>
       <c r="N9" t="n">
-        <v>607.9576310312872</v>
+        <v>607.9576310312873</v>
       </c>
       <c r="O9" t="n">
-        <v>556.1624582295525</v>
+        <v>556.1624582295526</v>
       </c>
       <c r="P9" t="n">
-        <v>446.369404877657</v>
+        <v>446.3694048776571</v>
       </c>
       <c r="Q9" t="n">
-        <v>298.3861261325584</v>
+        <v>298.3861261325585</v>
       </c>
       <c r="R9" t="n">
         <v>145.133108903673</v>
@@ -31633,7 +31633,7 @@
         <v>43.41895423898379</v>
       </c>
       <c r="T9" t="n">
-        <v>9.421964331906992</v>
+        <v>9.421964331906993</v>
       </c>
       <c r="U9" t="n">
         <v>0.1537861425229652</v>
@@ -31676,7 +31676,7 @@
         <v>1.959722865374615</v>
       </c>
       <c r="H10" t="n">
-        <v>17.42371783942159</v>
+        <v>17.4237178394216</v>
       </c>
       <c r="I10" t="n">
         <v>58.93421126053845</v>
@@ -31685,16 +31685,16 @@
         <v>138.5524065819853</v>
       </c>
       <c r="K10" t="n">
-        <v>227.6841656317052</v>
+        <v>227.6841656317053</v>
       </c>
       <c r="L10" t="n">
-        <v>291.3573430939678</v>
+        <v>291.3573430939679</v>
       </c>
       <c r="M10" t="n">
-        <v>307.1954669786771</v>
+        <v>307.1954669786772</v>
       </c>
       <c r="N10" t="n">
-        <v>299.8910453895538</v>
+        <v>299.8910453895539</v>
       </c>
       <c r="O10" t="n">
         <v>276.9979191894957</v>
@@ -31706,16 +31706,16 @@
         <v>164.1000664815053</v>
       </c>
       <c r="R10" t="n">
-        <v>88.11626629220767</v>
+        <v>88.1162662922077</v>
       </c>
       <c r="S10" t="n">
-        <v>34.15262484475578</v>
+        <v>34.15262484475579</v>
       </c>
       <c r="T10" t="n">
-        <v>8.373361333873353</v>
+        <v>8.373361333873355</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1068939744749791</v>
+        <v>0.1068939744749792</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32317,7 +32317,7 @@
         <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.512347035315</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138797</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905542</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32703,31 +32703,31 @@
         <v>5.323143027201199</v>
       </c>
       <c r="H23" t="n">
-        <v>54.5156385273243</v>
+        <v>54.51563852732428</v>
       </c>
       <c r="I23" t="n">
         <v>205.2204715561744</v>
       </c>
       <c r="J23" t="n">
-        <v>451.7951105049182</v>
+        <v>451.7951105049181</v>
       </c>
       <c r="K23" t="n">
-        <v>677.1237548463452</v>
+        <v>677.1237548463449</v>
       </c>
       <c r="L23" t="n">
-        <v>840.031893265054</v>
+        <v>840.0318932650538</v>
       </c>
       <c r="M23" t="n">
-        <v>934.6973380750433</v>
+        <v>934.6973380750431</v>
       </c>
       <c r="N23" t="n">
-        <v>949.8217182010787</v>
+        <v>949.8217182010786</v>
       </c>
       <c r="O23" t="n">
-        <v>896.8897147243467</v>
+        <v>896.8897147243466</v>
       </c>
       <c r="P23" t="n">
-        <v>765.474621240317</v>
+        <v>765.4746212403169</v>
       </c>
       <c r="Q23" t="n">
         <v>574.8395615786739</v>
@@ -32736,13 +32736,13 @@
         <v>334.3798831824276</v>
       </c>
       <c r="S23" t="n">
-        <v>121.3011217323475</v>
+        <v>121.3011217323474</v>
       </c>
       <c r="T23" t="n">
         <v>23.30205860157326</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4258514421760959</v>
+        <v>0.4258514421760958</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,25 +32785,25 @@
         <v>27.50696495558388</v>
       </c>
       <c r="I24" t="n">
-        <v>98.06070613139576</v>
+        <v>98.06070613139575</v>
       </c>
       <c r="J24" t="n">
-        <v>269.086072710369</v>
+        <v>269.0860727103689</v>
       </c>
       <c r="K24" t="n">
-        <v>280.5491978804765</v>
+        <v>459.9109576610952</v>
       </c>
       <c r="L24" t="n">
-        <v>618.4070391127067</v>
+        <v>618.4070391127066</v>
       </c>
       <c r="M24" t="n">
-        <v>721.651846268883</v>
+        <v>721.6518462688829</v>
       </c>
       <c r="N24" t="n">
-        <v>740.7518232975334</v>
+        <v>740.7518232975333</v>
       </c>
       <c r="O24" t="n">
-        <v>677.6432007018885</v>
+        <v>498.2814409212702</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32861,10 +32861,10 @@
         <v>2.3877787062589</v>
       </c>
       <c r="H25" t="n">
-        <v>21.22952340655642</v>
+        <v>21.22952340655641</v>
       </c>
       <c r="I25" t="n">
-        <v>71.8070178209495</v>
+        <v>71.80701782094948</v>
       </c>
       <c r="J25" t="n">
         <v>168.8159545325042</v>
@@ -32873,19 +32873,19 @@
         <v>277.4164715089885</v>
       </c>
       <c r="L25" t="n">
-        <v>354.9975723832551</v>
+        <v>354.997572383255</v>
       </c>
       <c r="M25" t="n">
         <v>374.2951657456564</v>
       </c>
       <c r="N25" t="n">
-        <v>365.3952632950554</v>
+        <v>365.3952632950553</v>
       </c>
       <c r="O25" t="n">
-        <v>337.5016665901218</v>
+        <v>337.5016665901217</v>
       </c>
       <c r="P25" t="n">
-        <v>288.79098098244</v>
+        <v>288.7909809824399</v>
       </c>
       <c r="Q25" t="n">
         <v>199.9439060304612</v>
@@ -32894,13 +32894,13 @@
         <v>107.3632134650592</v>
       </c>
       <c r="S25" t="n">
-        <v>41.61247072634827</v>
+        <v>41.61247072634826</v>
       </c>
       <c r="T25" t="n">
         <v>10.20232719946984</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1302424748868493</v>
+        <v>0.1302424748868492</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,31 +32940,31 @@
         <v>5.323143027201199</v>
       </c>
       <c r="H26" t="n">
-        <v>54.5156385273243</v>
+        <v>54.51563852732428</v>
       </c>
       <c r="I26" t="n">
         <v>205.2204715561744</v>
       </c>
       <c r="J26" t="n">
-        <v>451.7951105049182</v>
+        <v>451.7951105049181</v>
       </c>
       <c r="K26" t="n">
-        <v>677.1237548463452</v>
+        <v>677.1237548463449</v>
       </c>
       <c r="L26" t="n">
-        <v>840.031893265054</v>
+        <v>840.0318932650538</v>
       </c>
       <c r="M26" t="n">
-        <v>934.6973380750433</v>
+        <v>934.6973380750431</v>
       </c>
       <c r="N26" t="n">
-        <v>949.8217182010787</v>
+        <v>949.8217182010786</v>
       </c>
       <c r="O26" t="n">
-        <v>896.8897147243467</v>
+        <v>896.8897147243466</v>
       </c>
       <c r="P26" t="n">
-        <v>765.474621240317</v>
+        <v>765.4746212403169</v>
       </c>
       <c r="Q26" t="n">
         <v>574.8395615786739</v>
@@ -32973,13 +32973,13 @@
         <v>334.3798831824276</v>
       </c>
       <c r="S26" t="n">
-        <v>121.3011217323475</v>
+        <v>121.3011217323474</v>
       </c>
       <c r="T26" t="n">
         <v>23.30205860157326</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4258514421760959</v>
+        <v>0.4258514421760958</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,28 +33022,28 @@
         <v>27.50696495558388</v>
       </c>
       <c r="I27" t="n">
-        <v>98.06070613139576</v>
+        <v>98.06070613139575</v>
       </c>
       <c r="J27" t="n">
-        <v>269.086072710369</v>
+        <v>269.0860727103689</v>
       </c>
       <c r="K27" t="n">
-        <v>459.9109576610953</v>
+        <v>459.9109576610952</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>618.4070391127066</v>
       </c>
       <c r="M27" t="n">
-        <v>721.651846268883</v>
+        <v>721.6518462688829</v>
       </c>
       <c r="N27" t="n">
-        <v>740.7518232975334</v>
+        <v>740.7518232975333</v>
       </c>
       <c r="O27" t="n">
-        <v>677.6432007018885</v>
+        <v>498.2814409212702</v>
       </c>
       <c r="P27" t="n">
-        <v>434.4653069665438</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33098,10 +33098,10 @@
         <v>2.3877787062589</v>
       </c>
       <c r="H28" t="n">
-        <v>21.22952340655642</v>
+        <v>21.22952340655641</v>
       </c>
       <c r="I28" t="n">
-        <v>71.8070178209495</v>
+        <v>71.80701782094948</v>
       </c>
       <c r="J28" t="n">
         <v>168.8159545325042</v>
@@ -33110,19 +33110,19 @@
         <v>277.4164715089885</v>
       </c>
       <c r="L28" t="n">
-        <v>354.9975723832551</v>
+        <v>354.997572383255</v>
       </c>
       <c r="M28" t="n">
         <v>374.2951657456564</v>
       </c>
       <c r="N28" t="n">
-        <v>365.3952632950554</v>
+        <v>365.3952632950553</v>
       </c>
       <c r="O28" t="n">
-        <v>337.5016665901218</v>
+        <v>337.5016665901217</v>
       </c>
       <c r="P28" t="n">
-        <v>288.79098098244</v>
+        <v>288.7909809824399</v>
       </c>
       <c r="Q28" t="n">
         <v>199.9439060304612</v>
@@ -33131,13 +33131,13 @@
         <v>107.3632134650592</v>
       </c>
       <c r="S28" t="n">
-        <v>41.61247072634827</v>
+        <v>41.61247072634826</v>
       </c>
       <c r="T28" t="n">
         <v>10.20232719946984</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1302424748868493</v>
+        <v>0.1302424748868492</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,31 +33177,31 @@
         <v>5.323143027201199</v>
       </c>
       <c r="H29" t="n">
-        <v>54.5156385273243</v>
+        <v>54.51563852732428</v>
       </c>
       <c r="I29" t="n">
         <v>205.2204715561744</v>
       </c>
       <c r="J29" t="n">
-        <v>451.7951105049182</v>
+        <v>451.7951105049181</v>
       </c>
       <c r="K29" t="n">
-        <v>677.1237548463452</v>
+        <v>677.1237548463449</v>
       </c>
       <c r="L29" t="n">
-        <v>840.031893265054</v>
+        <v>840.0318932650538</v>
       </c>
       <c r="M29" t="n">
-        <v>934.6973380750433</v>
+        <v>934.6973380750431</v>
       </c>
       <c r="N29" t="n">
-        <v>949.8217182010787</v>
+        <v>949.8217182010786</v>
       </c>
       <c r="O29" t="n">
-        <v>896.8897147243467</v>
+        <v>896.8897147243466</v>
       </c>
       <c r="P29" t="n">
-        <v>765.474621240317</v>
+        <v>765.4746212403169</v>
       </c>
       <c r="Q29" t="n">
         <v>574.8395615786739</v>
@@ -33210,13 +33210,13 @@
         <v>334.3798831824276</v>
       </c>
       <c r="S29" t="n">
-        <v>121.3011217323475</v>
+        <v>121.3011217323474</v>
       </c>
       <c r="T29" t="n">
         <v>23.30205860157326</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4258514421760959</v>
+        <v>0.4258514421760958</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,31 +33259,31 @@
         <v>27.50696495558388</v>
       </c>
       <c r="I30" t="n">
-        <v>98.06070613139576</v>
+        <v>98.06070613139575</v>
       </c>
       <c r="J30" t="n">
-        <v>269.086072710369</v>
+        <v>269.0860727103689</v>
       </c>
       <c r="K30" t="n">
-        <v>459.9109576610953</v>
+        <v>459.9109576610952</v>
       </c>
       <c r="L30" t="n">
-        <v>618.4070391127067</v>
+        <v>618.4070391127066</v>
       </c>
       <c r="M30" t="n">
-        <v>721.651846268883</v>
+        <v>721.6518462688829</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>740.7518232975333</v>
       </c>
       <c r="O30" t="n">
-        <v>677.6432007018885</v>
+        <v>498.2814409212702</v>
       </c>
       <c r="P30" t="n">
-        <v>543.8684106431476</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>160.1361222907855</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33335,10 +33335,10 @@
         <v>2.3877787062589</v>
       </c>
       <c r="H31" t="n">
-        <v>21.22952340655642</v>
+        <v>21.22952340655641</v>
       </c>
       <c r="I31" t="n">
-        <v>71.8070178209495</v>
+        <v>71.80701782094948</v>
       </c>
       <c r="J31" t="n">
         <v>168.8159545325042</v>
@@ -33347,19 +33347,19 @@
         <v>277.4164715089885</v>
       </c>
       <c r="L31" t="n">
-        <v>354.9975723832551</v>
+        <v>354.997572383255</v>
       </c>
       <c r="M31" t="n">
         <v>374.2951657456564</v>
       </c>
       <c r="N31" t="n">
-        <v>365.3952632950554</v>
+        <v>365.3952632950553</v>
       </c>
       <c r="O31" t="n">
-        <v>337.5016665901218</v>
+        <v>337.5016665901217</v>
       </c>
       <c r="P31" t="n">
-        <v>288.79098098244</v>
+        <v>288.7909809824399</v>
       </c>
       <c r="Q31" t="n">
         <v>199.9439060304612</v>
@@ -33368,13 +33368,13 @@
         <v>107.3632134650592</v>
       </c>
       <c r="S31" t="n">
-        <v>41.61247072634827</v>
+        <v>41.61247072634826</v>
       </c>
       <c r="T31" t="n">
         <v>10.20232719946984</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1302424748868493</v>
+        <v>0.1302424748868492</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,31 +33414,31 @@
         <v>5.323143027201199</v>
       </c>
       <c r="H32" t="n">
-        <v>54.5156385273243</v>
+        <v>54.51563852732428</v>
       </c>
       <c r="I32" t="n">
         <v>205.2204715561744</v>
       </c>
       <c r="J32" t="n">
-        <v>451.7951105049182</v>
+        <v>451.7951105049181</v>
       </c>
       <c r="K32" t="n">
-        <v>677.1237548463452</v>
+        <v>677.1237548463449</v>
       </c>
       <c r="L32" t="n">
-        <v>840.031893265054</v>
+        <v>840.0318932650538</v>
       </c>
       <c r="M32" t="n">
-        <v>934.6973380750433</v>
+        <v>934.6973380750431</v>
       </c>
       <c r="N32" t="n">
-        <v>949.8217182010787</v>
+        <v>949.8217182010786</v>
       </c>
       <c r="O32" t="n">
-        <v>896.8897147243467</v>
+        <v>896.8897147243466</v>
       </c>
       <c r="P32" t="n">
-        <v>765.474621240317</v>
+        <v>765.4746212403169</v>
       </c>
       <c r="Q32" t="n">
         <v>574.8395615786739</v>
@@ -33447,13 +33447,13 @@
         <v>334.3798831824276</v>
       </c>
       <c r="S32" t="n">
-        <v>121.3011217323475</v>
+        <v>121.3011217323474</v>
       </c>
       <c r="T32" t="n">
         <v>23.30205860157326</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4258514421760959</v>
+        <v>0.4258514421760958</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,28 +33496,28 @@
         <v>27.50696495558388</v>
       </c>
       <c r="I33" t="n">
-        <v>98.06070613139576</v>
+        <v>98.06070613139575</v>
       </c>
       <c r="J33" t="n">
-        <v>269.086072710369</v>
+        <v>269.0860727103689</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>459.9109576610952</v>
       </c>
       <c r="L33" t="n">
-        <v>351.2207947900067</v>
+        <v>618.4070391127066</v>
       </c>
       <c r="M33" t="n">
-        <v>721.651846268883</v>
+        <v>721.6518462688829</v>
       </c>
       <c r="N33" t="n">
-        <v>740.7518232975334</v>
+        <v>740.7518232975333</v>
       </c>
       <c r="O33" t="n">
-        <v>677.6432007018885</v>
+        <v>498.2814409212702</v>
       </c>
       <c r="P33" t="n">
-        <v>543.8684106431476</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33572,10 +33572,10 @@
         <v>2.3877787062589</v>
       </c>
       <c r="H34" t="n">
-        <v>21.22952340655642</v>
+        <v>21.22952340655641</v>
       </c>
       <c r="I34" t="n">
-        <v>71.8070178209495</v>
+        <v>71.80701782094948</v>
       </c>
       <c r="J34" t="n">
         <v>168.8159545325042</v>
@@ -33584,19 +33584,19 @@
         <v>277.4164715089885</v>
       </c>
       <c r="L34" t="n">
-        <v>354.9975723832551</v>
+        <v>354.997572383255</v>
       </c>
       <c r="M34" t="n">
         <v>374.2951657456564</v>
       </c>
       <c r="N34" t="n">
-        <v>365.3952632950554</v>
+        <v>365.3952632950553</v>
       </c>
       <c r="O34" t="n">
-        <v>337.5016665901218</v>
+        <v>337.5016665901217</v>
       </c>
       <c r="P34" t="n">
-        <v>288.79098098244</v>
+        <v>288.7909809824399</v>
       </c>
       <c r="Q34" t="n">
         <v>199.9439060304612</v>
@@ -33605,13 +33605,13 @@
         <v>107.3632134650592</v>
       </c>
       <c r="S34" t="n">
-        <v>41.61247072634827</v>
+        <v>41.61247072634826</v>
       </c>
       <c r="T34" t="n">
         <v>10.20232719946984</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1302424748868493</v>
+        <v>0.1302424748868492</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,31 +33651,31 @@
         <v>5.323143027201199</v>
       </c>
       <c r="H35" t="n">
-        <v>54.5156385273243</v>
+        <v>54.51563852732428</v>
       </c>
       <c r="I35" t="n">
         <v>205.2204715561744</v>
       </c>
       <c r="J35" t="n">
-        <v>451.7951105049182</v>
+        <v>451.7951105049181</v>
       </c>
       <c r="K35" t="n">
-        <v>677.1237548463452</v>
+        <v>677.1237548463449</v>
       </c>
       <c r="L35" t="n">
-        <v>840.031893265054</v>
+        <v>840.0318932650538</v>
       </c>
       <c r="M35" t="n">
-        <v>934.6973380750433</v>
+        <v>934.6973380750431</v>
       </c>
       <c r="N35" t="n">
-        <v>949.8217182010787</v>
+        <v>949.8217182010786</v>
       </c>
       <c r="O35" t="n">
-        <v>896.8897147243467</v>
+        <v>896.8897147243466</v>
       </c>
       <c r="P35" t="n">
-        <v>765.474621240317</v>
+        <v>765.4746212403169</v>
       </c>
       <c r="Q35" t="n">
         <v>574.8395615786739</v>
@@ -33684,13 +33684,13 @@
         <v>334.3798831824276</v>
       </c>
       <c r="S35" t="n">
-        <v>121.3011217323475</v>
+        <v>121.3011217323474</v>
       </c>
       <c r="T35" t="n">
         <v>23.30205860157326</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4258514421760959</v>
+        <v>0.4258514421760958</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,28 +33733,28 @@
         <v>27.50696495558388</v>
       </c>
       <c r="I36" t="n">
-        <v>98.06070613139576</v>
+        <v>98.06070613139575</v>
       </c>
       <c r="J36" t="n">
-        <v>269.086072710369</v>
+        <v>269.0860727103689</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>459.9109576610952</v>
       </c>
       <c r="L36" t="n">
-        <v>618.4070391127067</v>
+        <v>618.4070391127066</v>
       </c>
       <c r="M36" t="n">
-        <v>721.651846268883</v>
+        <v>721.6518462688829</v>
       </c>
       <c r="N36" t="n">
-        <v>740.7518232975334</v>
+        <v>740.7518232975333</v>
       </c>
       <c r="O36" t="n">
-        <v>677.6432007018885</v>
+        <v>498.2814409212702</v>
       </c>
       <c r="P36" t="n">
-        <v>276.6821663204478</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33809,10 +33809,10 @@
         <v>2.3877787062589</v>
       </c>
       <c r="H37" t="n">
-        <v>21.22952340655642</v>
+        <v>21.22952340655641</v>
       </c>
       <c r="I37" t="n">
-        <v>71.8070178209495</v>
+        <v>71.80701782094948</v>
       </c>
       <c r="J37" t="n">
         <v>168.8159545325042</v>
@@ -33821,19 +33821,19 @@
         <v>277.4164715089885</v>
       </c>
       <c r="L37" t="n">
-        <v>354.9975723832551</v>
+        <v>354.997572383255</v>
       </c>
       <c r="M37" t="n">
         <v>374.2951657456564</v>
       </c>
       <c r="N37" t="n">
-        <v>365.3952632950554</v>
+        <v>365.3952632950553</v>
       </c>
       <c r="O37" t="n">
-        <v>337.5016665901218</v>
+        <v>337.5016665901217</v>
       </c>
       <c r="P37" t="n">
-        <v>288.79098098244</v>
+        <v>288.7909809824399</v>
       </c>
       <c r="Q37" t="n">
         <v>199.9439060304612</v>
@@ -33842,13 +33842,13 @@
         <v>107.3632134650592</v>
       </c>
       <c r="S37" t="n">
-        <v>41.61247072634827</v>
+        <v>41.61247072634826</v>
       </c>
       <c r="T37" t="n">
         <v>10.20232719946984</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1302424748868493</v>
+        <v>0.1302424748868492</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.3231430272012</v>
+        <v>5.323143027201199</v>
       </c>
       <c r="H38" t="n">
-        <v>54.51563852732431</v>
+        <v>54.51563852732428</v>
       </c>
       <c r="I38" t="n">
-        <v>205.2204715561745</v>
+        <v>205.2204715561744</v>
       </c>
       <c r="J38" t="n">
-        <v>451.7951105049183</v>
+        <v>451.7951105049181</v>
       </c>
       <c r="K38" t="n">
-        <v>677.1237548463453</v>
+        <v>677.1237548463449</v>
       </c>
       <c r="L38" t="n">
-        <v>840.0318932650541</v>
+        <v>840.0318932650538</v>
       </c>
       <c r="M38" t="n">
-        <v>934.6973380750434</v>
+        <v>934.6973380750431</v>
       </c>
       <c r="N38" t="n">
-        <v>949.821718201079</v>
+        <v>949.8217182010786</v>
       </c>
       <c r="O38" t="n">
-        <v>896.889714724347</v>
+        <v>896.8897147243466</v>
       </c>
       <c r="P38" t="n">
-        <v>765.4746212403172</v>
+        <v>765.4746212403169</v>
       </c>
       <c r="Q38" t="n">
-        <v>574.839561578674</v>
+        <v>574.8395615786739</v>
       </c>
       <c r="R38" t="n">
-        <v>334.3798831824277</v>
+        <v>334.3798831824276</v>
       </c>
       <c r="S38" t="n">
-        <v>121.3011217323475</v>
+        <v>121.3011217323474</v>
       </c>
       <c r="T38" t="n">
         <v>23.30205860157326</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4258514421760959</v>
+        <v>0.4258514421760958</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.848132611204871</v>
+        <v>2.84813261120487</v>
       </c>
       <c r="H39" t="n">
-        <v>27.50696495558389</v>
+        <v>27.50696495558388</v>
       </c>
       <c r="I39" t="n">
-        <v>98.06070613139579</v>
+        <v>98.06070613139575</v>
       </c>
       <c r="J39" t="n">
-        <v>269.086072710369</v>
+        <v>269.0860727103689</v>
       </c>
       <c r="K39" t="n">
-        <v>459.9109576610953</v>
+        <v>459.9109576610952</v>
       </c>
       <c r="L39" t="n">
-        <v>618.4070391127068</v>
+        <v>618.4070391127066</v>
       </c>
       <c r="M39" t="n">
-        <v>721.6518462688831</v>
+        <v>721.6518462688829</v>
       </c>
       <c r="N39" t="n">
-        <v>740.7518232975335</v>
+        <v>740.7518232975333</v>
       </c>
       <c r="O39" t="n">
-        <v>274.701585548929</v>
+        <v>498.2814409212702</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>363.5616294583621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>52.90281407216062</v>
+        <v>52.9028140721606</v>
       </c>
       <c r="T39" t="n">
-        <v>11.47997311270735</v>
+        <v>11.47997311270734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1873771454740047</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.387778706258901</v>
+        <v>2.3877787062589</v>
       </c>
       <c r="H40" t="n">
-        <v>21.22952340655642</v>
+        <v>21.22952340655641</v>
       </c>
       <c r="I40" t="n">
-        <v>71.80701782094951</v>
+        <v>71.80701782094948</v>
       </c>
       <c r="J40" t="n">
-        <v>168.8159545325043</v>
+        <v>168.8159545325042</v>
       </c>
       <c r="K40" t="n">
-        <v>277.4164715089886</v>
+        <v>277.4164715089885</v>
       </c>
       <c r="L40" t="n">
-        <v>354.9975723832551</v>
+        <v>354.997572383255</v>
       </c>
       <c r="M40" t="n">
-        <v>374.2951657456565</v>
+        <v>374.2951657456564</v>
       </c>
       <c r="N40" t="n">
-        <v>365.3952632950555</v>
+        <v>365.3952632950553</v>
       </c>
       <c r="O40" t="n">
-        <v>337.5016665901218</v>
+        <v>337.5016665901217</v>
       </c>
       <c r="P40" t="n">
-        <v>288.79098098244</v>
+        <v>288.7909809824399</v>
       </c>
       <c r="Q40" t="n">
         <v>199.9439060304612</v>
       </c>
       <c r="R40" t="n">
-        <v>107.3632134650593</v>
+        <v>107.3632134650592</v>
       </c>
       <c r="S40" t="n">
-        <v>41.61247072634828</v>
+        <v>41.61247072634826</v>
       </c>
       <c r="T40" t="n">
-        <v>10.20232719946985</v>
+        <v>10.20232719946984</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1302424748868493</v>
+        <v>0.1302424748868492</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,31 +34125,31 @@
         <v>5.323143027201199</v>
       </c>
       <c r="H41" t="n">
-        <v>54.5156385273243</v>
+        <v>54.51563852732428</v>
       </c>
       <c r="I41" t="n">
         <v>205.2204715561744</v>
       </c>
       <c r="J41" t="n">
-        <v>451.7951105049182</v>
+        <v>451.7951105049181</v>
       </c>
       <c r="K41" t="n">
-        <v>677.1237548463452</v>
+        <v>677.1237548463449</v>
       </c>
       <c r="L41" t="n">
-        <v>840.031893265054</v>
+        <v>840.0318932650538</v>
       </c>
       <c r="M41" t="n">
-        <v>934.6973380750433</v>
+        <v>934.6973380750431</v>
       </c>
       <c r="N41" t="n">
-        <v>949.8217182010787</v>
+        <v>949.8217182010786</v>
       </c>
       <c r="O41" t="n">
-        <v>896.8897147243467</v>
+        <v>896.8897147243466</v>
       </c>
       <c r="P41" t="n">
-        <v>765.474621240317</v>
+        <v>765.4746212403169</v>
       </c>
       <c r="Q41" t="n">
         <v>574.8395615786739</v>
@@ -34158,13 +34158,13 @@
         <v>334.3798831824276</v>
       </c>
       <c r="S41" t="n">
-        <v>121.3011217323475</v>
+        <v>121.3011217323474</v>
       </c>
       <c r="T41" t="n">
         <v>23.30205860157326</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4258514421760959</v>
+        <v>0.4258514421760958</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,28 +34207,28 @@
         <v>27.50696495558388</v>
       </c>
       <c r="I42" t="n">
-        <v>98.06070613139576</v>
+        <v>98.06070613139575</v>
       </c>
       <c r="J42" t="n">
-        <v>269.086072710369</v>
+        <v>269.0860727103689</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>459.9109576610952</v>
       </c>
       <c r="L42" t="n">
-        <v>351.2207947900067</v>
+        <v>618.4070391127066</v>
       </c>
       <c r="M42" t="n">
-        <v>721.651846268883</v>
+        <v>721.6518462688829</v>
       </c>
       <c r="N42" t="n">
-        <v>740.7518232975334</v>
+        <v>740.7518232975333</v>
       </c>
       <c r="O42" t="n">
-        <v>677.6432007018885</v>
+        <v>498.2814409212702</v>
       </c>
       <c r="P42" t="n">
-        <v>543.8684106431476</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34283,10 +34283,10 @@
         <v>2.3877787062589</v>
       </c>
       <c r="H43" t="n">
-        <v>21.22952340655642</v>
+        <v>21.22952340655641</v>
       </c>
       <c r="I43" t="n">
-        <v>71.8070178209495</v>
+        <v>71.80701782094948</v>
       </c>
       <c r="J43" t="n">
         <v>168.8159545325042</v>
@@ -34295,19 +34295,19 @@
         <v>277.4164715089885</v>
       </c>
       <c r="L43" t="n">
-        <v>354.9975723832551</v>
+        <v>354.997572383255</v>
       </c>
       <c r="M43" t="n">
         <v>374.2951657456564</v>
       </c>
       <c r="N43" t="n">
-        <v>365.3952632950554</v>
+        <v>365.3952632950553</v>
       </c>
       <c r="O43" t="n">
-        <v>337.5016665901218</v>
+        <v>337.5016665901217</v>
       </c>
       <c r="P43" t="n">
-        <v>288.79098098244</v>
+        <v>288.7909809824399</v>
       </c>
       <c r="Q43" t="n">
         <v>199.9439060304612</v>
@@ -34316,13 +34316,13 @@
         <v>107.3632134650592</v>
       </c>
       <c r="S43" t="n">
-        <v>41.61247072634827</v>
+        <v>41.61247072634826</v>
       </c>
       <c r="T43" t="n">
         <v>10.20232719946984</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1302424748868493</v>
+        <v>0.1302424748868492</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,31 +34362,31 @@
         <v>5.323143027201199</v>
       </c>
       <c r="H44" t="n">
-        <v>54.5156385273243</v>
+        <v>54.51563852732428</v>
       </c>
       <c r="I44" t="n">
         <v>205.2204715561744</v>
       </c>
       <c r="J44" t="n">
-        <v>451.7951105049182</v>
+        <v>451.7951105049181</v>
       </c>
       <c r="K44" t="n">
-        <v>677.1237548463452</v>
+        <v>677.1237548463449</v>
       </c>
       <c r="L44" t="n">
-        <v>840.031893265054</v>
+        <v>840.0318932650538</v>
       </c>
       <c r="M44" t="n">
-        <v>934.6973380750433</v>
+        <v>934.6973380750431</v>
       </c>
       <c r="N44" t="n">
-        <v>949.8217182010787</v>
+        <v>949.8217182010786</v>
       </c>
       <c r="O44" t="n">
-        <v>896.8897147243467</v>
+        <v>896.8897147243466</v>
       </c>
       <c r="P44" t="n">
-        <v>765.474621240317</v>
+        <v>765.4746212403169</v>
       </c>
       <c r="Q44" t="n">
         <v>574.8395615786739</v>
@@ -34395,13 +34395,13 @@
         <v>334.3798831824276</v>
       </c>
       <c r="S44" t="n">
-        <v>121.3011217323475</v>
+        <v>121.3011217323474</v>
       </c>
       <c r="T44" t="n">
         <v>23.30205860157326</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4258514421760959</v>
+        <v>0.4258514421760958</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,25 +34444,25 @@
         <v>27.50696495558388</v>
       </c>
       <c r="I45" t="n">
-        <v>98.06070613139576</v>
+        <v>98.06070613139575</v>
       </c>
       <c r="J45" t="n">
-        <v>269.086072710369</v>
+        <v>269.0860727103689</v>
       </c>
       <c r="K45" t="n">
-        <v>459.9109576610953</v>
+        <v>459.9109576610952</v>
       </c>
       <c r="L45" t="n">
-        <v>618.4070391127067</v>
+        <v>618.4070391127066</v>
       </c>
       <c r="M45" t="n">
-        <v>721.651846268883</v>
+        <v>721.6518462688829</v>
       </c>
       <c r="N45" t="n">
-        <v>740.7518232975334</v>
+        <v>740.7518232975333</v>
       </c>
       <c r="O45" t="n">
-        <v>498.2814409212698</v>
+        <v>498.2814409212702</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34520,10 +34520,10 @@
         <v>2.3877787062589</v>
       </c>
       <c r="H46" t="n">
-        <v>21.22952340655642</v>
+        <v>21.22952340655641</v>
       </c>
       <c r="I46" t="n">
-        <v>71.8070178209495</v>
+        <v>71.80701782094948</v>
       </c>
       <c r="J46" t="n">
         <v>168.8159545325042</v>
@@ -34532,19 +34532,19 @@
         <v>277.4164715089885</v>
       </c>
       <c r="L46" t="n">
-        <v>354.9975723832551</v>
+        <v>354.997572383255</v>
       </c>
       <c r="M46" t="n">
         <v>374.2951657456564</v>
       </c>
       <c r="N46" t="n">
-        <v>365.3952632950554</v>
+        <v>365.3952632950553</v>
       </c>
       <c r="O46" t="n">
-        <v>337.5016665901218</v>
+        <v>337.5016665901217</v>
       </c>
       <c r="P46" t="n">
-        <v>288.79098098244</v>
+        <v>288.7909809824399</v>
       </c>
       <c r="Q46" t="n">
         <v>199.9439060304612</v>
@@ -34553,13 +34553,13 @@
         <v>107.3632134650592</v>
       </c>
       <c r="S46" t="n">
-        <v>41.61247072634827</v>
+        <v>41.61247072634826</v>
       </c>
       <c r="T46" t="n">
         <v>10.20232719946984</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1302424748868493</v>
+        <v>0.1302424748868492</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313203</v>
+        <v>271.5293621272326</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378503</v>
@@ -34795,10 +34795,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>491.0077074256848</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
@@ -35032,7 +35032,7 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>443.0068759113666</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667037</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>189.7561326135756</v>
+        <v>189.7561326135757</v>
       </c>
       <c r="K8" t="n">
-        <v>335.6462821161038</v>
+        <v>335.6462821161039</v>
       </c>
       <c r="L8" t="n">
-        <v>453.6733997667467</v>
+        <v>453.6733997667469</v>
       </c>
       <c r="M8" t="n">
-        <v>536.7884014978926</v>
+        <v>536.7884014978928</v>
       </c>
       <c r="N8" t="n">
-        <v>550.1346115329959</v>
+        <v>550.1346115329961</v>
       </c>
       <c r="O8" t="n">
-        <v>506.0065528336489</v>
+        <v>506.006552833649</v>
       </c>
       <c r="P8" t="n">
-        <v>397.0153901510452</v>
+        <v>397.0153901510453</v>
       </c>
       <c r="Q8" t="n">
-        <v>249.4826838951842</v>
+        <v>249.4826838951843</v>
       </c>
       <c r="R8" t="n">
-        <v>58.8502384478096</v>
+        <v>58.85023844780966</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.00952640581275</v>
+        <v>94.00952640581281</v>
       </c>
       <c r="K9" t="n">
-        <v>239.6215216435081</v>
+        <v>239.6215216435082</v>
       </c>
       <c r="L9" t="n">
-        <v>368.9911525934183</v>
+        <v>368.9911525934185</v>
       </c>
       <c r="M9" t="n">
-        <v>450.1476629814279</v>
+        <v>450.147662981428</v>
       </c>
       <c r="N9" t="n">
-        <v>476.6159189479539</v>
+        <v>476.615918947954</v>
       </c>
       <c r="O9" t="n">
-        <v>413.5662137851081</v>
+        <v>413.5662137851082</v>
       </c>
       <c r="P9" t="n">
-        <v>312.3949974633268</v>
+        <v>312.3949974633269</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.4043520465369</v>
+        <v>158.404352046537</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19322646531251</v>
+        <v>45.19322646531253</v>
       </c>
       <c r="K10" t="n">
         <v>205.4146738058224</v>
@@ -35339,19 +35339,19 @@
         <v>318.947368354284</v>
       </c>
       <c r="M10" t="n">
-        <v>346.7793439405177</v>
+        <v>346.7793439405178</v>
       </c>
       <c r="N10" t="n">
-        <v>344.0232177687824</v>
+        <v>344.0232177687825</v>
       </c>
       <c r="O10" t="n">
         <v>301.5830471035354</v>
       </c>
       <c r="P10" t="n">
-        <v>234.2981320007468</v>
+        <v>234.2981320007469</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.9380232298109</v>
+        <v>77.93802322981092</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.670908060956</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340056</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>270.7492059782319</v>
+        <v>270.7492059782318</v>
       </c>
       <c r="K23" t="n">
-        <v>457.0339038013646</v>
+        <v>457.0339038013644</v>
       </c>
       <c r="L23" t="n">
-        <v>604.2654782950667</v>
+        <v>604.2654782950665</v>
       </c>
       <c r="M23" t="n">
-        <v>704.3511048477706</v>
+        <v>704.3511048477704</v>
       </c>
       <c r="N23" t="n">
         <v>720.4086546044878</v>
       </c>
       <c r="O23" t="n">
-        <v>666.79150330266</v>
+        <v>666.7915033026599</v>
       </c>
       <c r="P23" t="n">
-        <v>534.2416254850475</v>
+        <v>534.2416254850473</v>
       </c>
       <c r="Q23" t="n">
         <v>352.5338717042243</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>142.2484460437023</v>
+        <v>142.2484460437022</v>
       </c>
       <c r="K24" t="n">
-        <v>142.7077589061175</v>
+        <v>322.0695186867362</v>
       </c>
       <c r="L24" t="n">
-        <v>479.8526593328325</v>
+        <v>479.8526593328324</v>
       </c>
       <c r="M24" t="n">
-        <v>579.5178123468647</v>
+        <v>579.5178123468645</v>
       </c>
       <c r="N24" t="n">
-        <v>609.4101112142001</v>
+        <v>609.4101112142</v>
       </c>
       <c r="O24" t="n">
-        <v>535.0469562574441</v>
+        <v>355.6851964768258</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>75.45677441583146</v>
+        <v>75.45677441583143</v>
       </c>
       <c r="K25" t="n">
-        <v>255.1469796831057</v>
+        <v>255.1469796831056</v>
       </c>
       <c r="L25" t="n">
-        <v>382.5875976435713</v>
+        <v>382.5875976435711</v>
       </c>
       <c r="M25" t="n">
         <v>413.879042707497</v>
       </c>
       <c r="N25" t="n">
-        <v>409.527435674284</v>
+        <v>409.5274356742839</v>
       </c>
       <c r="O25" t="n">
         <v>362.0867945041614</v>
       </c>
       <c r="P25" t="n">
-        <v>286.0695402473335</v>
+        <v>286.0695402473334</v>
       </c>
       <c r="Q25" t="n">
         <v>113.7818627787668</v>
@@ -36594,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>270.7492059782319</v>
+        <v>270.7492059782318</v>
       </c>
       <c r="K26" t="n">
-        <v>457.0339038013646</v>
+        <v>457.0339038013644</v>
       </c>
       <c r="L26" t="n">
-        <v>604.2654782950667</v>
+        <v>604.2654782950665</v>
       </c>
       <c r="M26" t="n">
-        <v>704.3511048477706</v>
+        <v>704.3511048477704</v>
       </c>
       <c r="N26" t="n">
         <v>720.4086546044878</v>
       </c>
       <c r="O26" t="n">
-        <v>666.79150330266</v>
+        <v>666.7915033026599</v>
       </c>
       <c r="P26" t="n">
-        <v>534.2416254850475</v>
+        <v>534.2416254850473</v>
       </c>
       <c r="Q26" t="n">
         <v>352.5338717042243</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>142.2484460437023</v>
+        <v>142.2484460437022</v>
       </c>
       <c r="K27" t="n">
-        <v>322.0695186867363</v>
+        <v>322.0695186867362</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>479.8526593328324</v>
       </c>
       <c r="M27" t="n">
-        <v>579.5178123468647</v>
+        <v>579.5178123468645</v>
       </c>
       <c r="N27" t="n">
-        <v>609.4101112142001</v>
+        <v>609.4101112142</v>
       </c>
       <c r="O27" t="n">
-        <v>535.0469562574441</v>
+        <v>355.6851964768258</v>
       </c>
       <c r="P27" t="n">
-        <v>300.4908995522135</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>75.45677441583146</v>
+        <v>75.45677441583143</v>
       </c>
       <c r="K28" t="n">
-        <v>255.1469796831057</v>
+        <v>255.1469796831056</v>
       </c>
       <c r="L28" t="n">
-        <v>382.5875976435713</v>
+        <v>382.5875976435711</v>
       </c>
       <c r="M28" t="n">
         <v>413.879042707497</v>
       </c>
       <c r="N28" t="n">
-        <v>409.527435674284</v>
+        <v>409.5274356742839</v>
       </c>
       <c r="O28" t="n">
         <v>362.0867945041614</v>
       </c>
       <c r="P28" t="n">
-        <v>286.0695402473335</v>
+        <v>286.0695402473334</v>
       </c>
       <c r="Q28" t="n">
         <v>113.7818627787668</v>
@@ -36831,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>270.7492059782319</v>
+        <v>270.7492059782318</v>
       </c>
       <c r="K29" t="n">
-        <v>457.0339038013646</v>
+        <v>457.0339038013644</v>
       </c>
       <c r="L29" t="n">
-        <v>604.2654782950667</v>
+        <v>604.2654782950665</v>
       </c>
       <c r="M29" t="n">
-        <v>704.3511048477706</v>
+        <v>704.3511048477704</v>
       </c>
       <c r="N29" t="n">
         <v>720.4086546044878</v>
       </c>
       <c r="O29" t="n">
-        <v>666.79150330266</v>
+        <v>666.7915033026599</v>
       </c>
       <c r="P29" t="n">
-        <v>534.2416254850475</v>
+        <v>534.2416254850473</v>
       </c>
       <c r="Q29" t="n">
         <v>352.5338717042243</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>142.2484460437023</v>
+        <v>142.2484460437022</v>
       </c>
       <c r="K30" t="n">
-        <v>322.0695186867363</v>
+        <v>322.0695186867362</v>
       </c>
       <c r="L30" t="n">
-        <v>479.8526593328325</v>
+        <v>479.8526593328324</v>
       </c>
       <c r="M30" t="n">
-        <v>579.5178123468647</v>
+        <v>579.5178123468645</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>609.4101112142</v>
       </c>
       <c r="O30" t="n">
-        <v>535.0469562574441</v>
+        <v>355.6851964768258</v>
       </c>
       <c r="P30" t="n">
-        <v>409.8940032288174</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>20.15434820476398</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>75.45677441583146</v>
+        <v>75.45677441583143</v>
       </c>
       <c r="K31" t="n">
-        <v>255.1469796831057</v>
+        <v>255.1469796831056</v>
       </c>
       <c r="L31" t="n">
-        <v>382.5875976435713</v>
+        <v>382.5875976435711</v>
       </c>
       <c r="M31" t="n">
         <v>413.879042707497</v>
       </c>
       <c r="N31" t="n">
-        <v>409.527435674284</v>
+        <v>409.5274356742839</v>
       </c>
       <c r="O31" t="n">
         <v>362.0867945041614</v>
       </c>
       <c r="P31" t="n">
-        <v>286.0695402473335</v>
+        <v>286.0695402473334</v>
       </c>
       <c r="Q31" t="n">
         <v>113.7818627787668</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>270.7492059782319</v>
+        <v>270.7492059782318</v>
       </c>
       <c r="K32" t="n">
-        <v>457.0339038013646</v>
+        <v>457.0339038013644</v>
       </c>
       <c r="L32" t="n">
-        <v>604.2654782950667</v>
+        <v>604.2654782950665</v>
       </c>
       <c r="M32" t="n">
-        <v>704.3511048477706</v>
+        <v>704.3511048477704</v>
       </c>
       <c r="N32" t="n">
         <v>720.4086546044878</v>
       </c>
       <c r="O32" t="n">
-        <v>666.79150330266</v>
+        <v>666.7915033026599</v>
       </c>
       <c r="P32" t="n">
-        <v>534.2416254850475</v>
+        <v>534.2416254850473</v>
       </c>
       <c r="Q32" t="n">
         <v>352.5338717042243</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>142.2484460437023</v>
+        <v>142.2484460437022</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.0695186867362</v>
       </c>
       <c r="L33" t="n">
-        <v>212.6664150101326</v>
+        <v>479.8526593328324</v>
       </c>
       <c r="M33" t="n">
-        <v>579.5178123468647</v>
+        <v>579.5178123468645</v>
       </c>
       <c r="N33" t="n">
-        <v>609.4101112142001</v>
+        <v>609.4101112142</v>
       </c>
       <c r="O33" t="n">
-        <v>535.0469562574441</v>
+        <v>355.6851964768258</v>
       </c>
       <c r="P33" t="n">
-        <v>409.8940032288174</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>75.45677441583146</v>
+        <v>75.45677441583143</v>
       </c>
       <c r="K34" t="n">
-        <v>255.1469796831057</v>
+        <v>255.1469796831056</v>
       </c>
       <c r="L34" t="n">
-        <v>382.5875976435713</v>
+        <v>382.5875976435711</v>
       </c>
       <c r="M34" t="n">
         <v>413.879042707497</v>
       </c>
       <c r="N34" t="n">
-        <v>409.527435674284</v>
+        <v>409.5274356742839</v>
       </c>
       <c r="O34" t="n">
         <v>362.0867945041614</v>
       </c>
       <c r="P34" t="n">
-        <v>286.0695402473335</v>
+        <v>286.0695402473334</v>
       </c>
       <c r="Q34" t="n">
         <v>113.7818627787668</v>
@@ -37305,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>270.7492059782319</v>
+        <v>270.7492059782318</v>
       </c>
       <c r="K35" t="n">
-        <v>457.0339038013646</v>
+        <v>457.0339038013644</v>
       </c>
       <c r="L35" t="n">
-        <v>604.2654782950667</v>
+        <v>604.2654782950665</v>
       </c>
       <c r="M35" t="n">
-        <v>704.3511048477706</v>
+        <v>704.3511048477704</v>
       </c>
       <c r="N35" t="n">
         <v>720.4086546044878</v>
       </c>
       <c r="O35" t="n">
-        <v>666.79150330266</v>
+        <v>666.7915033026599</v>
       </c>
       <c r="P35" t="n">
-        <v>534.2416254850475</v>
+        <v>534.2416254850473</v>
       </c>
       <c r="Q35" t="n">
         <v>352.5338717042243</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>142.2484460437023</v>
+        <v>142.2484460437022</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.0695186867362</v>
       </c>
       <c r="L36" t="n">
-        <v>479.8526593328325</v>
+        <v>479.8526593328324</v>
       </c>
       <c r="M36" t="n">
-        <v>579.5178123468647</v>
+        <v>579.5178123468645</v>
       </c>
       <c r="N36" t="n">
-        <v>609.4101112142001</v>
+        <v>609.4101112142</v>
       </c>
       <c r="O36" t="n">
-        <v>535.0469562574441</v>
+        <v>355.6851964768258</v>
       </c>
       <c r="P36" t="n">
-        <v>142.7077589061176</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,25 +37463,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>75.45677441583146</v>
+        <v>75.45677441583143</v>
       </c>
       <c r="K37" t="n">
-        <v>255.1469796831057</v>
+        <v>255.1469796831056</v>
       </c>
       <c r="L37" t="n">
-        <v>382.5875976435713</v>
+        <v>382.5875976435711</v>
       </c>
       <c r="M37" t="n">
         <v>413.879042707497</v>
       </c>
       <c r="N37" t="n">
-        <v>409.527435674284</v>
+        <v>409.5274356742839</v>
       </c>
       <c r="O37" t="n">
         <v>362.0867945041614</v>
       </c>
       <c r="P37" t="n">
-        <v>286.0695402473335</v>
+        <v>286.0695402473334</v>
       </c>
       <c r="Q37" t="n">
         <v>113.7818627787668</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>270.749205978232</v>
+        <v>270.7492059782318</v>
       </c>
       <c r="K38" t="n">
-        <v>457.0339038013647</v>
+        <v>457.0339038013644</v>
       </c>
       <c r="L38" t="n">
-        <v>604.2654782950669</v>
+        <v>604.2654782950665</v>
       </c>
       <c r="M38" t="n">
-        <v>704.3511048477707</v>
+        <v>704.3511048477704</v>
       </c>
       <c r="N38" t="n">
-        <v>720.408654604488</v>
+        <v>720.4086546044878</v>
       </c>
       <c r="O38" t="n">
-        <v>666.7915033026602</v>
+        <v>666.7915033026599</v>
       </c>
       <c r="P38" t="n">
-        <v>534.2416254850477</v>
+        <v>534.2416254850473</v>
       </c>
       <c r="Q38" t="n">
-        <v>352.5338717042245</v>
+        <v>352.5338717042243</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7943453682956</v>
+        <v>118.7943453682955</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>142.2484460437023</v>
+        <v>142.2484460437022</v>
       </c>
       <c r="K39" t="n">
-        <v>322.0695186867363</v>
+        <v>322.0695186867362</v>
       </c>
       <c r="L39" t="n">
-        <v>479.8526593328326</v>
+        <v>479.8526593328324</v>
       </c>
       <c r="M39" t="n">
-        <v>579.5178123468647</v>
+        <v>579.5178123468645</v>
       </c>
       <c r="N39" t="n">
-        <v>609.4101112142002</v>
+        <v>609.4101112142</v>
       </c>
       <c r="O39" t="n">
-        <v>132.1053411044845</v>
+        <v>355.6851964768258</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>223.5798553723406</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>75.45677441583149</v>
+        <v>75.45677441583143</v>
       </c>
       <c r="K40" t="n">
-        <v>255.1469796831057</v>
+        <v>255.1469796831056</v>
       </c>
       <c r="L40" t="n">
-        <v>382.5875976435713</v>
+        <v>382.5875976435711</v>
       </c>
       <c r="M40" t="n">
-        <v>413.8790427074971</v>
+        <v>413.879042707497</v>
       </c>
       <c r="N40" t="n">
-        <v>409.5274356742841</v>
+        <v>409.5274356742839</v>
       </c>
       <c r="O40" t="n">
-        <v>362.0867945041615</v>
+        <v>362.0867945041614</v>
       </c>
       <c r="P40" t="n">
-        <v>286.0695402473335</v>
+        <v>286.0695402473334</v>
       </c>
       <c r="Q40" t="n">
         <v>113.7818627787668</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>270.7492059782319</v>
+        <v>270.7492059782318</v>
       </c>
       <c r="K41" t="n">
-        <v>457.0339038013646</v>
+        <v>457.0339038013644</v>
       </c>
       <c r="L41" t="n">
-        <v>604.2654782950667</v>
+        <v>604.2654782950665</v>
       </c>
       <c r="M41" t="n">
-        <v>704.3511048477706</v>
+        <v>704.3511048477704</v>
       </c>
       <c r="N41" t="n">
         <v>720.4086546044878</v>
       </c>
       <c r="O41" t="n">
-        <v>666.79150330266</v>
+        <v>666.7915033026599</v>
       </c>
       <c r="P41" t="n">
-        <v>534.2416254850475</v>
+        <v>534.2416254850473</v>
       </c>
       <c r="Q41" t="n">
         <v>352.5338717042243</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>142.2484460437023</v>
+        <v>142.2484460437022</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.0695186867362</v>
       </c>
       <c r="L42" t="n">
-        <v>212.6664150101326</v>
+        <v>479.8526593328324</v>
       </c>
       <c r="M42" t="n">
-        <v>579.5178123468647</v>
+        <v>579.5178123468645</v>
       </c>
       <c r="N42" t="n">
-        <v>609.4101112142001</v>
+        <v>609.4101112142</v>
       </c>
       <c r="O42" t="n">
-        <v>535.0469562574441</v>
+        <v>355.6851964768258</v>
       </c>
       <c r="P42" t="n">
-        <v>409.8940032288174</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>75.45677441583146</v>
+        <v>75.45677441583143</v>
       </c>
       <c r="K43" t="n">
-        <v>255.1469796831057</v>
+        <v>255.1469796831056</v>
       </c>
       <c r="L43" t="n">
-        <v>382.5875976435713</v>
+        <v>382.5875976435711</v>
       </c>
       <c r="M43" t="n">
         <v>413.879042707497</v>
       </c>
       <c r="N43" t="n">
-        <v>409.527435674284</v>
+        <v>409.5274356742839</v>
       </c>
       <c r="O43" t="n">
         <v>362.0867945041614</v>
       </c>
       <c r="P43" t="n">
-        <v>286.0695402473335</v>
+        <v>286.0695402473334</v>
       </c>
       <c r="Q43" t="n">
         <v>113.7818627787668</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>270.7492059782319</v>
+        <v>270.7492059782318</v>
       </c>
       <c r="K44" t="n">
-        <v>457.0339038013646</v>
+        <v>457.0339038013644</v>
       </c>
       <c r="L44" t="n">
-        <v>604.2654782950667</v>
+        <v>604.2654782950665</v>
       </c>
       <c r="M44" t="n">
-        <v>704.3511048477706</v>
+        <v>704.3511048477704</v>
       </c>
       <c r="N44" t="n">
         <v>720.4086546044878</v>
       </c>
       <c r="O44" t="n">
-        <v>666.79150330266</v>
+        <v>666.7915033026599</v>
       </c>
       <c r="P44" t="n">
-        <v>534.2416254850475</v>
+        <v>534.2416254850473</v>
       </c>
       <c r="Q44" t="n">
         <v>352.5338717042243</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>142.2484460437023</v>
+        <v>142.2484460437022</v>
       </c>
       <c r="K45" t="n">
-        <v>322.0695186867363</v>
+        <v>322.0695186867362</v>
       </c>
       <c r="L45" t="n">
-        <v>479.8526593328325</v>
+        <v>479.8526593328324</v>
       </c>
       <c r="M45" t="n">
-        <v>579.5178123468647</v>
+        <v>579.5178123468645</v>
       </c>
       <c r="N45" t="n">
-        <v>609.4101112142001</v>
+        <v>609.4101112142</v>
       </c>
       <c r="O45" t="n">
-        <v>355.6851964768254</v>
+        <v>355.6851964768258</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>75.45677441583146</v>
+        <v>75.45677441583143</v>
       </c>
       <c r="K46" t="n">
-        <v>255.1469796831057</v>
+        <v>255.1469796831056</v>
       </c>
       <c r="L46" t="n">
-        <v>382.5875976435713</v>
+        <v>382.5875976435711</v>
       </c>
       <c r="M46" t="n">
         <v>413.879042707497</v>
       </c>
       <c r="N46" t="n">
-        <v>409.527435674284</v>
+        <v>409.5274356742839</v>
       </c>
       <c r="O46" t="n">
         <v>362.0867945041614</v>
       </c>
       <c r="P46" t="n">
-        <v>286.0695402473335</v>
+        <v>286.0695402473334</v>
       </c>
       <c r="Q46" t="n">
         <v>113.7818627787668</v>
